--- a/ROA.xlsx
+++ b/ROA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\Documents\GitHub\Fama-French_Factors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\Documents\GitHub\BR-Fama-French-Factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E89AACA-2386-4920-A67D-14370116CDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F04FE66-D5FF-46BB-93D6-10D23141D5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="738" xr2:uid="{FEFC4317-2C94-411F-B0C2-E84FC760457F}"/>
   </bookViews>
@@ -17,220 +17,220 @@
     <sheet name="CONTROLE" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID06650625e65449508a8d3e297fa93dfd" localSheetId="0" hidden="1">TODOS!$BQ$2:$BQ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID0699539e3d4343539e2c796304bcd3dd" localSheetId="0" hidden="1">TODOS!$FK$2:$FK$7538</definedName>
-    <definedName name="_ECO_RANGE_ID06c84730ae834c3890528e267c220d41" localSheetId="0" hidden="1">TODOS!$EM$2:$EM$7538</definedName>
-    <definedName name="_ECO_RANGE_ID0cb5d52ad925426daa6e637b56658c95" localSheetId="0" hidden="1">TODOS!$AB$2:$AB$7538</definedName>
-    <definedName name="_ECO_RANGE_ID0e91aaeaa08c46169b645aeff85cc6b4" localSheetId="0" hidden="1">TODOS!$BS$2:$BS$7538</definedName>
-    <definedName name="_ECO_RANGE_ID0f52845c363647eab1263db7ae15d2fd" localSheetId="0" hidden="1">TODOS!$DJ$2:$DJ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID0ff80022a5de4af99ddbc70b5e90c314" localSheetId="0" hidden="1">TODOS!$DQ$2:$DQ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID10b69da92f424f74b21adcb8411c0359" localSheetId="0" hidden="1">TODOS!$GO$2:$GO$7538</definedName>
-    <definedName name="_ECO_RANGE_ID10fbed0880994419b12669af0125f0da" localSheetId="0" hidden="1">TODOS!$HA$2:$HA$7538</definedName>
-    <definedName name="_ECO_RANGE_ID1172fc77eb2a4fbeb8758c8b2e569f20" localSheetId="0" hidden="1">TODOS!$AV$2:$AV$7538</definedName>
-    <definedName name="_ECO_RANGE_ID142a964e28ed4a86a3968a0da80deaf5" localSheetId="0" hidden="1">TODOS!$AH$2:$AH$7538</definedName>
-    <definedName name="_ECO_RANGE_ID15005f534f764701a56f483dc1b22a4d" localSheetId="0" hidden="1">TODOS!$AG$2:$AG$7538</definedName>
-    <definedName name="_ECO_RANGE_ID18e814e455724211ba0f3f124d5f742c" localSheetId="0" hidden="1">TODOS!$DD$2:$DD$7538</definedName>
-    <definedName name="_ECO_RANGE_ID1ef5d0a778bf41098166febf1cd1db3d" localSheetId="0" hidden="1">TODOS!$AA$2:$AA$7538</definedName>
-    <definedName name="_ECO_RANGE_ID201a66d7f5c84a67858640c366a01607" localSheetId="0" hidden="1">TODOS!$U$2:$U$7538</definedName>
-    <definedName name="_ECO_RANGE_ID212fb764f02641958fa6fc98de5777f5" localSheetId="0" hidden="1">TODOS!$CG$2:$CG$7538</definedName>
-    <definedName name="_ECO_RANGE_ID254b19f642a84a9c86c5740c2a99b7db" localSheetId="0" hidden="1">TODOS!$L$2:$L$7538</definedName>
-    <definedName name="_ECO_RANGE_ID269d55043a594c6cb892daeeb8d92174" localSheetId="0" hidden="1">TODOS!$FC$2:$FC$7538</definedName>
-    <definedName name="_ECO_RANGE_ID26d76dd598874771adcc94aba9c11dfc" localSheetId="0" hidden="1">TODOS!$D$2:$D$7538</definedName>
-    <definedName name="_ECO_RANGE_ID27367ae953cf4c2c9734e97e6b055e27" localSheetId="0" hidden="1">TODOS!$CR$2:$CR$7538</definedName>
-    <definedName name="_ECO_RANGE_ID27c3cb7eda2249d19602e35162aeb3a2" localSheetId="0" hidden="1">TODOS!$GK$2:$GK$7538</definedName>
-    <definedName name="_ECO_RANGE_ID28ce6f7f99204ed285ed1fdc7267bcbf" localSheetId="0" hidden="1">TODOS!$J$2:$J$7538</definedName>
-    <definedName name="_ECO_RANGE_ID2a2fc0e0b4db4b6793144f43e5a03198" localSheetId="0" hidden="1">TODOS!$AF$2:$AF$7538</definedName>
-    <definedName name="_ECO_RANGE_ID2b0051cae1a94b25ae9a553ce98f9b32" localSheetId="0" hidden="1">TODOS!$BR$2:$BR$7538</definedName>
-    <definedName name="_ECO_RANGE_ID2bf8732e1a194227b96fb6fc6a58b542" localSheetId="0" hidden="1">TODOS!$HF$2:$HF$7538</definedName>
-    <definedName name="_ECO_RANGE_ID2c3582f24ab441fbbc976e1798ff4d45" localSheetId="0" hidden="1">TODOS!$DF$2:$DF$7538</definedName>
-    <definedName name="_ECO_RANGE_ID30bcd0fef4d24261afbda1ac3273af76" localSheetId="0" hidden="1">TODOS!$CZ$2:$CZ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID3136923b9a6545cdb38bca5d62dee32c" localSheetId="0" hidden="1">TODOS!$AW$2:$AW$7538</definedName>
-    <definedName name="_ECO_RANGE_ID320105d8ab7842df925a6034f295d28e" localSheetId="0" hidden="1">TODOS!$AX$2:$AX$7538</definedName>
-    <definedName name="_ECO_RANGE_ID32c036c5ea374c9eb66882125a5bae72" localSheetId="0" hidden="1">TODOS!$FR$2:$FR$7538</definedName>
-    <definedName name="_ECO_RANGE_ID337e2ac7b44844f2b3438c098e93e122" localSheetId="0" hidden="1">TODOS!$G$2:$G$7538</definedName>
-    <definedName name="_ECO_RANGE_ID350449d6d2e94538bde9f782e1df3dfa" localSheetId="0" hidden="1">TODOS!$BN$2:$BN$7538</definedName>
-    <definedName name="_ECO_RANGE_ID354679236e9c4419bf0b4edeb6e36495" localSheetId="0" hidden="1">TODOS!$DH$2:$DH$7538</definedName>
-    <definedName name="_ECO_RANGE_ID35619a89e90544f690e1590627b78188" localSheetId="0" hidden="1">TODOS!$CP$2:$CP$7538</definedName>
-    <definedName name="_ECO_RANGE_ID35bb1c362d4c4f14b1d8d320fea05dd4" localSheetId="0" hidden="1">TODOS!$HH$2:$HH$7538</definedName>
-    <definedName name="_ECO_RANGE_ID360d84c9f0b94c4ab4b0fe6d13217ad2" localSheetId="0" hidden="1">TODOS!$EO$2:$EO$7538</definedName>
-    <definedName name="_ECO_RANGE_ID372e755cdae54c12b8617208de5fc872" localSheetId="0" hidden="1">TODOS!$GJ$2:$GJ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID3758217a69f44bb9899c3b8430471eee" localSheetId="0" hidden="1">TODOS!$CF$2:$CF$7538</definedName>
-    <definedName name="_ECO_RANGE_ID3805d0f9e5df40b2806316ae76bebe6e" localSheetId="0" hidden="1">TODOS!$CW$2:$CW$7538</definedName>
-    <definedName name="_ECO_RANGE_ID3860ba7bb6be40ba94bbeb3449b1a30a" localSheetId="0" hidden="1">TODOS!$AC$2:$AC$7538</definedName>
-    <definedName name="_ECO_RANGE_ID3a13a3ac540a45328728a0f86bc4fe59" localSheetId="0" hidden="1">TODOS!$EK$2:$EK$7538</definedName>
-    <definedName name="_ECO_RANGE_ID3b96d7f42a754baa8797a20ef12ba7f8" localSheetId="0" hidden="1">TODOS!$DZ$2:$DZ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID3ef7a7aa21a540d6a3696304af189517" localSheetId="0" hidden="1">TODOS!$AU$2:$AU$7538</definedName>
-    <definedName name="_ECO_RANGE_ID3f7899130dcf4ee7a846c13a71e06db8" localSheetId="0" hidden="1">TODOS!$FN$2:$FN$7538</definedName>
-    <definedName name="_ECO_RANGE_ID411180f2657a4438bf53590d24b5a2d6" localSheetId="0" hidden="1">TODOS!$EL$2:$EL$7538</definedName>
-    <definedName name="_ECO_RANGE_ID4155514273b94e6eb8e96989863bdb56" localSheetId="0" hidden="1">TODOS!$Z$2:$Z$7538</definedName>
-    <definedName name="_ECO_RANGE_ID41ed6ffbc77f4459b548b22eabf7669a" localSheetId="0" hidden="1">TODOS!$CN$2:$CN$7538</definedName>
-    <definedName name="_ECO_RANGE_ID423fdb3f20764438b111da329c8a4352" localSheetId="0" hidden="1">TODOS!$DY$2:$DY$7538</definedName>
-    <definedName name="_ECO_RANGE_ID44ea7ba481614dc6a09c2a8b6f490933" localSheetId="0" hidden="1">TODOS!$ED$2:$ED$7538</definedName>
-    <definedName name="_ECO_RANGE_ID4648a88a1cf3482790bcc18aa245ffed" localSheetId="0" hidden="1">TODOS!$FQ$2:$FQ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID48179b18960a4739bfea1902a43cf388" localSheetId="0" hidden="1">TODOS!$P$2:$P$7538</definedName>
-    <definedName name="_ECO_RANGE_ID499b4cc07b774075afe6c43083f3a770" localSheetId="0" hidden="1">TODOS!$EG$2:$EG$7538</definedName>
-    <definedName name="_ECO_RANGE_ID4a9eb6adf8844a9990f885f2eeeb576a" localSheetId="0" hidden="1">TODOS!$BA$2:$BA$7538</definedName>
-    <definedName name="_ECO_RANGE_ID4af6e5c32d4745629ebb223084ed0139" localSheetId="0" hidden="1">TODOS!$FH$2:$FH$7538</definedName>
-    <definedName name="_ECO_RANGE_ID4d9630cc6d6e4e068516db5e06550689" localSheetId="0" hidden="1">TODOS!$GA$2:$GA$7538</definedName>
-    <definedName name="_ECO_RANGE_ID4ec96214973f489995535cef95209f86" localSheetId="0" hidden="1">TODOS!$CT$2:$CT$7538</definedName>
-    <definedName name="_ECO_RANGE_ID50775018f6bc48159a78ac562e0b0df0" localSheetId="0" hidden="1">TODOS!$EW$2:$EW$7538</definedName>
-    <definedName name="_ECO_RANGE_ID5118337bf76c46b1b7bc83add989fcd6" localSheetId="0" hidden="1">TODOS!$F$2:$F$7538</definedName>
-    <definedName name="_ECO_RANGE_ID5545821cbe554d9ba42ebd156eee1124" localSheetId="0" hidden="1">TODOS!$EQ$2:$EQ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID55a56edda49440a6a1a3749087c85471" localSheetId="0" hidden="1">TODOS!$CO$2:$CO$7538</definedName>
-    <definedName name="_ECO_RANGE_ID5614e3a0b5024f08bb06166a1fd6fa56" localSheetId="0" hidden="1">TODOS!$EZ$2:$EZ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID5675344d288f4ca5bf409163c8d2b5c3" localSheetId="0" hidden="1">TODOS!$E$2:$E$7538</definedName>
-    <definedName name="_ECO_RANGE_ID56f088bb6787465981fdd3ae385a71c7" localSheetId="0" hidden="1">TODOS!$BG$2:$BG$7538</definedName>
-    <definedName name="_ECO_RANGE_ID57407dad42b743b29561d0cf0e94b9c7" localSheetId="0" hidden="1">TODOS!$GG$2:$GG$7538</definedName>
-    <definedName name="_ECO_RANGE_ID57fb2b40069e4d9cb9902e76aa496fa3" localSheetId="0" hidden="1">TODOS!$GV$2:$GV$7538</definedName>
-    <definedName name="_ECO_RANGE_ID58468c320a054c50ab20fafb9d472097" localSheetId="0" hidden="1">TODOS!$AJ$2:$AJ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID586ba632988f42f18149475f35cb59f4" localSheetId="0" hidden="1">TODOS!$BL$2:$BL$7538</definedName>
-    <definedName name="_ECO_RANGE_ID58794a2980a24ba1ba7cad311ad3dbdb" localSheetId="0" hidden="1">TODOS!$HB$2:$HB$7538</definedName>
-    <definedName name="_ECO_RANGE_ID58a0bbcff9334f6e9b2c89e3609cf667" localSheetId="0" hidden="1">TODOS!$AS$2:$AS$7538</definedName>
-    <definedName name="_ECO_RANGE_ID5d250910f8da4d4eb8640a8f43558c47" localSheetId="0" hidden="1">TODOS!$CB$2:$CB$7538</definedName>
-    <definedName name="_ECO_RANGE_ID5f07af5796af4f01a2e8bde4c8f0ddce" localSheetId="0" hidden="1">TODOS!$FB$2:$FB$7538</definedName>
-    <definedName name="_ECO_RANGE_ID623a903493c249338f9fa93a3b6e3a8a" localSheetId="0" hidden="1">TODOS!$DV$2:$DV$7538</definedName>
-    <definedName name="_ECO_RANGE_ID62691c3b7e99450a9de27855a447b51c" localSheetId="0" hidden="1">TODOS!$H$2:$H$7538</definedName>
-    <definedName name="_ECO_RANGE_ID63194993a68041f7b0e1826d08a46c70" localSheetId="0" hidden="1">TODOS!$DU$2:$DU$7538</definedName>
-    <definedName name="_ECO_RANGE_ID64d34fb61825489394d2f7b40856d180" localSheetId="0" hidden="1">TODOS!$BM$2:$BM$7538</definedName>
-    <definedName name="_ECO_RANGE_ID65af83018c4a4813b6bf28a6ca2d6487" localSheetId="0" hidden="1">TODOS!$HG$2:$HG$7538</definedName>
-    <definedName name="_ECO_RANGE_ID661fa9d171334c4394afaf14e8e41dd3" localSheetId="0" hidden="1">TODOS!$EA$2:$EA$7538</definedName>
-    <definedName name="_ECO_RANGE_ID669ab9aee1554dd183074f84681cb0f2" localSheetId="0" hidden="1">TODOS!$EV$2:$EV$7538</definedName>
-    <definedName name="_ECO_RANGE_ID67566e5e71e44d22800ff566100a1295" localSheetId="0" hidden="1">TODOS!$FF$2:$FF$7538</definedName>
-    <definedName name="_ECO_RANGE_ID67d8f53ed7a143019e78880aca0f86a9" localSheetId="0" hidden="1">TODOS!$AT$2:$AT$7538</definedName>
-    <definedName name="_ECO_RANGE_ID6a0b3a0c2514467d816eff0945623288" localSheetId="0" hidden="1">TODOS!$BY$2:$BY$7538</definedName>
-    <definedName name="_ECO_RANGE_ID6a4ba03548fe4882afbb45e3a8d1ee26" localSheetId="0" hidden="1">TODOS!$K$2:$K$7538</definedName>
-    <definedName name="_ECO_RANGE_ID6d6793f9352346238c9783c1d1f98dbc" localSheetId="0" hidden="1">TODOS!$Q$2:$Q$7538</definedName>
-    <definedName name="_ECO_RANGE_ID6d939c4cf79545fcbd350c4d3172b218" localSheetId="0" hidden="1">TODOS!$CD$2:$CD$7538</definedName>
-    <definedName name="_ECO_RANGE_ID6df1562116744b2e874aa2d99c68c396" localSheetId="0" hidden="1">TODOS!$BE$2:$BE$7538</definedName>
-    <definedName name="_ECO_RANGE_ID6f12fdcf4e934774b200fca62385f678" localSheetId="0" hidden="1">TODOS!$FP$2:$FP$7538</definedName>
-    <definedName name="_ECO_RANGE_ID7041e96a27e9458f8798aa775f02393b" localSheetId="0" hidden="1">TODOS!$C$2:$C$7538</definedName>
-    <definedName name="_ECO_RANGE_ID70f52357f8974e6a9556fff220ab8f8d" localSheetId="0" hidden="1">TODOS!$HC$2:$HC$7538</definedName>
-    <definedName name="_ECO_RANGE_ID7119c510014a4041a8ef6423d41d697a" localSheetId="0" hidden="1">TODOS!$DK$2:$DK$7538</definedName>
-    <definedName name="_ECO_RANGE_ID71f3e40e032f40bf9fca8d22b5360324" localSheetId="0" hidden="1">TODOS!$GY$2:$GY$7538</definedName>
-    <definedName name="_ECO_RANGE_ID71fdef0171c64e60a15340871b11b072" localSheetId="0" hidden="1">TODOS!$AY$2:$AY$7538</definedName>
-    <definedName name="_ECO_RANGE_ID726fe50760514c7cb42f00a31c9ccb7c" localSheetId="0" hidden="1">TODOS!$BD$2:$BD$7538</definedName>
-    <definedName name="_ECO_RANGE_ID773ce7bca9554ec89071542d7b902108" localSheetId="0" hidden="1">TODOS!$FM$2:$FM$7538</definedName>
-    <definedName name="_ECO_RANGE_ID77625e319df345eea24347c8feb92fe5" localSheetId="0" hidden="1">TODOS!$DB$2:$DB$7538</definedName>
-    <definedName name="_ECO_RANGE_ID797e448c1468461fa56059a06c6f8097" localSheetId="0" hidden="1">TODOS!$FI$2:$FI$7538</definedName>
-    <definedName name="_ECO_RANGE_ID79d04c23bfc44ceda57891721f39420e" localSheetId="0" hidden="1">TODOS!$AE$2:$AE$7538</definedName>
-    <definedName name="_ECO_RANGE_ID7a42c1059c1846eb9557a8e0411b4ed5" localSheetId="0" hidden="1">TODOS!$CH$2:$CH$7538</definedName>
-    <definedName name="_ECO_RANGE_ID7b09c61131c14d8480e3eafcf8bca9fd" localSheetId="0" hidden="1">TODOS!$AR$2:$AR$7538</definedName>
-    <definedName name="_ECO_RANGE_ID7b30aeb2e87e40ac9fd05dbd459ba13e" localSheetId="0" hidden="1">TODOS!$BX$2:$BX$7538</definedName>
-    <definedName name="_ECO_RANGE_ID7b314a5c5d2e44469dd4b90931a2965c" localSheetId="0" hidden="1">TODOS!$AM$2:$AM$7538</definedName>
-    <definedName name="_ECO_RANGE_ID7bbc7832948d4af5baf26dd1c037ddb6" localSheetId="0" hidden="1">TODOS!$AD$2:$AD$7538</definedName>
-    <definedName name="_ECO_RANGE_ID7c4bda05ce8c4161a4493b69fe5c8530" localSheetId="0" hidden="1">TODOS!$DR$2:$DR$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8143a3da098e4d34be85a525bca1ff28" localSheetId="0" hidden="1">TODOS!$GQ$2:$GQ$7538</definedName>
-    <definedName name="_ECO_RANGE_ID81ccb9f8b68145a5874b9b133f499a6a" localSheetId="0" hidden="1">TODOS!$GF$2:$GF$7538</definedName>
-    <definedName name="_ECO_RANGE_ID87c047a94987410fad5ba623d74fbc40" localSheetId="0" hidden="1">TODOS!$HI$2:$HI$7538</definedName>
-    <definedName name="_ECO_RANGE_ID87ce278c85884563b25a2348c870aa42" localSheetId="0" hidden="1">TODOS!$AK$2:$AK$7538</definedName>
-    <definedName name="_ECO_RANGE_ID88be354ad0c347a19ac765698662e1c6" localSheetId="0" hidden="1">TODOS!$DS$2:$DS$7538</definedName>
-    <definedName name="_ECO_RANGE_ID890c71d979da464daf21dd884d16007d" localSheetId="0" hidden="1">TODOS!$CK$2:$CK$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8a52f8a489474b039edd24676e3cb862" localSheetId="0" hidden="1">TODOS!$DX$2:$DX$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8ab4efd988ad4e1e9885bfac204c8279" localSheetId="0" hidden="1">TODOS!$DT$2:$DT$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8bc58a43488e4772930be3c541e32a06" localSheetId="0" hidden="1">TODOS!$B$1</definedName>
-    <definedName name="_ECO_RANGE_ID8c935313f90c487ab1c226405b088e68" localSheetId="0" hidden="1">TODOS!$AL$2:$AL$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8d461b1206b84bd4a7e4fab0a4fc8bff" localSheetId="0" hidden="1">TODOS!$GI$2:$GI$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8d46d679ec4c4996b9cffdee03c2a451" localSheetId="0" hidden="1">TODOS!$CX$2:$CX$7538</definedName>
-    <definedName name="_ECO_RANGE_ID8e89110871d54430913584bca8da1f4f" localSheetId="0" hidden="1">TODOS!$GT$2:$GT$7538</definedName>
-    <definedName name="_ECO_RANGE_ID91741750434f45c5a512a13a4d3e043a" localSheetId="0" hidden="1">TODOS!$FT$2:$FT$7538</definedName>
-    <definedName name="_ECO_RANGE_ID91f4420e07f5470bb55bfbe75f2ef9d2" localSheetId="0" hidden="1">TODOS!$W$2:$W$7538</definedName>
-    <definedName name="_ECO_RANGE_ID9257785f635b48f8a7ec0804533c2bd8" localSheetId="0" hidden="1">TODOS!$BH$2:$BH$7538</definedName>
-    <definedName name="_ECO_RANGE_ID93d25818febf44c0b34410142f12882f" localSheetId="0" hidden="1">TODOS!$FU$2:$FU$7538</definedName>
-    <definedName name="_ECO_RANGE_ID94036069729046ad84e68776afe64e12" localSheetId="0" hidden="1">TODOS!$FA$2:$FA$7538</definedName>
-    <definedName name="_ECO_RANGE_ID94c05c246dd9473f9b2135eb915bdb14" localSheetId="0" hidden="1">TODOS!$O$2:$O$7538</definedName>
-    <definedName name="_ECO_RANGE_ID95db2b461d0b4a209399298f3f3671ce" localSheetId="0" hidden="1">TODOS!$GP$2:$GP$7538</definedName>
-    <definedName name="_ECO_RANGE_ID9b175703f42144eab44013e46f635090" localSheetId="0" hidden="1">TODOS!$GR$2:$GR$7538</definedName>
-    <definedName name="_ECO_RANGE_ID9b6011c7f299415eba299cf5dc07a6c5" localSheetId="0" hidden="1">TODOS!$CV$2:$CV$7538</definedName>
-    <definedName name="_ECO_RANGE_ID9e811be7b27c4060ae5e485ca45204d0" localSheetId="0" hidden="1">TODOS!$FY$2:$FY$7538</definedName>
-    <definedName name="_ECO_RANGE_ID9f5aea1845a9420594504896bb81d169" localSheetId="0" hidden="1">TODOS!$HE$2:$HE$7538</definedName>
-    <definedName name="_ECO_RANGE_ID9f610859cb304c8e97c2f72b2758eea4" localSheetId="0" hidden="1">TODOS!$CC$2:$CC$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa007df82a0d54676b6e68008df03662f" localSheetId="0" hidden="1">TODOS!$ET$2:$ET$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa0be50a1cdb14140823f647d8cd397b7" localSheetId="0" hidden="1">TODOS!$CY$2:$CY$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa15454be384345df97c5fb1c0592cd26" localSheetId="0" hidden="1">TODOS!$T$2:$T$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa259d9ed6af24b8a936dfc557f531ce0" localSheetId="0" hidden="1">TODOS!$EF$2:$EF$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa26a8ed28c7f4d0699339a57bc4fbf05" localSheetId="0" hidden="1">TODOS!$I$2:$I$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa2950b12cb3a4025bf788ea2ccd34df5" localSheetId="0" hidden="1">TODOS!$BT$2:$BT$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa2988813be4741b5b8e90c1276a65b15" localSheetId="0" hidden="1">TODOS!$GX$2:$GX$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa3638e47d8944e7a897a2e04749abc99" localSheetId="0" hidden="1">TODOS!$GW$2:$GW$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa37b858429fa4bd980019caa2dbc097b" localSheetId="0" hidden="1">TODOS!$HJ$2:$HJ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa3e4dc66e62d448496f797318e4ac108" localSheetId="0" hidden="1">TODOS!$CA$2:$CA$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa43040237fff4abca359ca82a771d0b5" localSheetId="0" hidden="1">TODOS!$BU$2:$BU$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa69de182b0904c63879264ecffa6abd9" localSheetId="0" hidden="1">TODOS!$BK$2:$BK$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa79261b4e8a84317b3befa91bfb33cbb" localSheetId="0" hidden="1">TODOS!$EP$2:$EP$7538</definedName>
-    <definedName name="_ECO_RANGE_IDa8591a02112f49fb93c153b2b3b39953" localSheetId="0" hidden="1">TODOS!$Y$2:$Y$7538</definedName>
-    <definedName name="_ECO_RANGE_IDaa50724424d94af69d73236fc44b4023" localSheetId="0" hidden="1">TODOS!$FE$2:$FE$7538</definedName>
-    <definedName name="_ECO_RANGE_IDab0653031b434365b000cd267fb0f69e" localSheetId="0" hidden="1">TODOS!$DO$2:$DO$7538</definedName>
-    <definedName name="_ECO_RANGE_IDab8774eeaa0c418bbc3727f2b1903b71" localSheetId="0" hidden="1">TODOS!$FO$2:$FO$7538</definedName>
-    <definedName name="_ECO_RANGE_IDabe2df4fa93a4332b34b143119a37a7a" localSheetId="0" hidden="1">TODOS!$GZ$2:$GZ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDad607554e12e4cb5a6e68fea89ba9f6e" localSheetId="0" hidden="1">TODOS!$EJ$2:$EJ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDaedd2f11a5a247b1be800cd278b177fb" localSheetId="0" hidden="1">TODOS!$CQ$2:$CQ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDaf122fa301b7441b8fa8b9985240b06f" localSheetId="0" hidden="1">TODOS!$EH$2:$EH$7538</definedName>
-    <definedName name="_ECO_RANGE_IDaf1c2e8577304d4abd641163e160db04" localSheetId="0" hidden="1">TODOS!$DP$2:$DP$7538</definedName>
-    <definedName name="_ECO_RANGE_IDb38042b87020450c8f65c41fe02698da" localSheetId="0" hidden="1">TODOS!$FD$2:$FD$7538</definedName>
-    <definedName name="_ECO_RANGE_IDb39b72c3966341cda6266f6669ceb80e" localSheetId="0" hidden="1">TODOS!$EB$2:$EB$7538</definedName>
-    <definedName name="_ECO_RANGE_IDb5568afead03402aa5f8c57a4f4c9c5f" localSheetId="0" hidden="1">TODOS!$AI$2:$AI$7538</definedName>
-    <definedName name="_ECO_RANGE_IDb75a0495a7b34c91919d4f618ccd822d" localSheetId="0" hidden="1">TODOS!$CJ$2:$CJ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDb7cd8bd8c58d4c049273e83a3e1ebe40" localSheetId="0" hidden="1">TODOS!$GL$2:$GL$7538</definedName>
-    <definedName name="_ECO_RANGE_IDba10cfcadc984d95840b28e5392995a2" localSheetId="0" hidden="1">TODOS!$R$2:$R$7538</definedName>
-    <definedName name="_ECO_RANGE_IDba38ea8cdb124c52a34b0256920a19a4" localSheetId="0" hidden="1">TODOS!$DI$2:$DI$7538</definedName>
-    <definedName name="_ECO_RANGE_IDbab0730d5d3f4f4796d8ab7b9b15a43d" localSheetId="0" hidden="1">TODOS!$M$2:$M$7538</definedName>
-    <definedName name="_ECO_RANGE_IDbb8e067f5cf545fb84f0a7d0410b02ba" localSheetId="0" hidden="1">TODOS!$AQ$2:$AQ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDbea514ec497c4285ab3f2acd87d1a65d" localSheetId="0" hidden="1">TODOS!$GB$2:$GB$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc032153db64647989e5aee08dee73f95" localSheetId="0" hidden="1">TODOS!$AP$2:$AP$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc2f33fdcb3fb47cf98519e9d656d44d4" localSheetId="0" hidden="1">TODOS!$EI$2:$EI$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc31a0f4cc09e4c3eaf1b8603e3d5f4a2" localSheetId="0" hidden="1">TODOS!$FW$2:$FW$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc323316fa63b43adad193816cca1be68" localSheetId="0" hidden="1">TODOS!$N$2:$N$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc458415fce604b4fa4587f34fc3a660d" localSheetId="0" hidden="1">TODOS!$BO$2:$BO$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc647f752c8504320ace747c150745ce6" localSheetId="0" hidden="1">TODOS!$ER$2:$ER$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc7cadc39f56e4318baeae93556b10165" localSheetId="0" hidden="1">TODOS!$GD$2:$GD$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc851994953e948ae870a21c12451a6c6" localSheetId="0" hidden="1">TODOS!$CE$2:$CE$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc8657acee570481cb692792bf62d983b" localSheetId="0" hidden="1">TODOS!$CM$2:$CM$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc97502cee1b046688081373534511e1b" localSheetId="0" hidden="1">TODOS!$DL$2:$DL$7538</definedName>
-    <definedName name="_ECO_RANGE_IDc9e2ee43706f4c27b23a17a92cc3f5ec" localSheetId="0" hidden="1">TODOS!$GU$2:$GU$7538</definedName>
-    <definedName name="_ECO_RANGE_IDca6e15c84cfd45e3ab70b72a575ca5b6" localSheetId="0" hidden="1">TODOS!$BP$2:$BP$7538</definedName>
-    <definedName name="_ECO_RANGE_IDcafc07730c0b4c7292cb894330f1b99c" localSheetId="0" hidden="1">TODOS!$DN$2:$DN$7538</definedName>
-    <definedName name="_ECO_RANGE_IDcc57eab4ed92448cb2c4ccf74afcfe34" localSheetId="0" hidden="1">TODOS!$CU$2:$CU$7538</definedName>
-    <definedName name="_ECO_RANGE_IDccd1718323d64bec972977575c8f9bf2" localSheetId="0" hidden="1">TODOS!$FX$2:$FX$7538</definedName>
-    <definedName name="_ECO_RANGE_IDcdcfc37e4ce244e09b42b12a62f5f046" localSheetId="0" hidden="1">TODOS!$S$2:$S$7538</definedName>
-    <definedName name="_ECO_RANGE_IDce5b1643fa0a4c3184fb08141fc6d086" localSheetId="0" hidden="1">TODOS!$AZ$2:$AZ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDd0714a3632054ec5bcca0b8707ea62a2" localSheetId="0" hidden="1">TODOS!$DC$2:$DC$7538</definedName>
-    <definedName name="_ECO_RANGE_IDd14f33ff76074721adac5a6f41b3afe1" localSheetId="0" hidden="1">TODOS!$AN$2:$AN$7538</definedName>
-    <definedName name="_ECO_RANGE_IDd4113cf6f7ff46298b2a20eb94b2de0c" localSheetId="0" hidden="1">TODOS!$EE$2:$EE$7538</definedName>
-    <definedName name="_ECO_RANGE_IDd435c2bc706a4487a0d71d7e658cf9ac" localSheetId="0" hidden="1">TODOS!$BI$2:$BI$7538</definedName>
-    <definedName name="_ECO_RANGE_IDd4714f9c76e544eebd4d864d9009d6e0" localSheetId="0" hidden="1">TODOS!$HK$2:$HK$7538</definedName>
-    <definedName name="_ECO_RANGE_IDd7a9cd51dda64e92a6f5ae0d84b3a3ee" localSheetId="0" hidden="1">TODOS!$EY$2:$EY$7538</definedName>
-    <definedName name="_ECO_RANGE_IDdb23528565ad46cca80588c3e3b04c99" localSheetId="0" hidden="1">TODOS!$X$2:$X$7538</definedName>
-    <definedName name="_ECO_RANGE_IDdb862ca8ab734db093a6db0db9ae9254" localSheetId="0" hidden="1">TODOS!$BZ$2:$BZ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDdc60462223c94d349ae47256d1de0562" localSheetId="0" hidden="1">TODOS!$FV$2:$FV$7538</definedName>
-    <definedName name="_ECO_RANGE_IDddca4cd997e04f64a978bcd49e7df77c" localSheetId="0" hidden="1">TODOS!$BC$2:$BC$7538</definedName>
-    <definedName name="_ECO_RANGE_IDded4603d51e043f5ab14714277071be8" localSheetId="0" hidden="1">TODOS!$CS$2:$CS$7538</definedName>
-    <definedName name="_ECO_RANGE_IDe23a70d18fdf45f5bd9bb2a5dba1c227" localSheetId="0" hidden="1">TODOS!$FS$2:$FS$7538</definedName>
-    <definedName name="_ECO_RANGE_IDe4885b9006444252bd88f981da66a31a" localSheetId="0" hidden="1">TODOS!$DM$2:$DM$7538</definedName>
-    <definedName name="_ECO_RANGE_IDe4af71b5ccb64e98bbae8b3b1aa0d024" localSheetId="0" hidden="1">TODOS!$EC$2:$EC$7538</definedName>
-    <definedName name="_ECO_RANGE_IDe53ea075efd5467a886d20f1f98a24b4" localSheetId="0" hidden="1">TODOS!$ES$2:$ES$7538</definedName>
-    <definedName name="_ECO_RANGE_IDe7d843d5e1ed4ce4bcb2458265ce93aa" localSheetId="0" hidden="1">TODOS!$CI$2:$CI$7538</definedName>
-    <definedName name="_ECO_RANGE_IDea25e33784bc45769706bdd52a19737e" localSheetId="0" hidden="1">TODOS!$EU$2:$EU$7538</definedName>
-    <definedName name="_ECO_RANGE_IDeb0e1b8ef0ca40c18832a4bb18990f79" localSheetId="0" hidden="1">TODOS!$GE$2:$GE$7538</definedName>
-    <definedName name="_ECO_RANGE_IDebb4c4a0c72141fdb65c97be16d4fb6b" localSheetId="0" hidden="1">TODOS!$DG$2:$DG$7538</definedName>
-    <definedName name="_ECO_RANGE_IDf25330ad337c46dc91ba23ae98de4d70" localSheetId="0" hidden="1">TODOS!$BB$2:$BB$7538</definedName>
-    <definedName name="_ECO_RANGE_IDf34bd36c779a45ddbd623a611ece98e9" localSheetId="0" hidden="1">TODOS!$CL$2:$CL$7538</definedName>
-    <definedName name="_ECO_RANGE_IDf377d907475f4166b1866e1e36ea9dfd" localSheetId="0" hidden="1">TODOS!$GH$2:$GH$7538</definedName>
-    <definedName name="_ECO_RANGE_IDf61eed1a2a8249ee831238a7104fe25d" localSheetId="0" hidden="1">TODOS!$EN$2:$EN$7538</definedName>
-    <definedName name="_ECO_RANGE_IDf78c8064d3a14b34bfc36b20224f116e" localSheetId="0" hidden="1">TODOS!$FZ$2:$FZ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDf820dc7ae07d4acba95ff18a9fa505f2" localSheetId="0" hidden="1">TODOS!$A$2:$B$7538</definedName>
-    <definedName name="_ECO_RANGE_IDf83997b15791491798ebbe94485148a9" localSheetId="0" hidden="1">TODOS!$GS$2:$GS$7538</definedName>
-    <definedName name="_ECO_RANGE_IDf9eb0469ffad40d080e4a3ca7ad1ec23" localSheetId="0" hidden="1">TODOS!$EX$2:$EX$7538</definedName>
-    <definedName name="_ECO_RANGE_IDfa905d81005e408d97b44e8d99bb3e3c" localSheetId="0" hidden="1">TODOS!$AO$2:$AO$7538</definedName>
-    <definedName name="_ECO_RANGE_IDfc00fa72b4654275b1fd3a62c598fe7e" localSheetId="0" hidden="1">TODOS!$DA$2:$DA$7538</definedName>
-    <definedName name="_ECO_RANGE_IDfccd6c9e446e4de7abe537ad28c8412b" localSheetId="0" hidden="1">TODOS!$FJ$2:$FJ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDfceb55988bfd4eec83ad67bc21fa6b94" localSheetId="0" hidden="1">TODOS!$BW$2:$BW$7538</definedName>
-    <definedName name="_ECO_RANGE_IDfd5df01c03bb46ac9cd23039f6afb235" localSheetId="0" hidden="1">TODOS!$BV$2:$BV$7538</definedName>
-    <definedName name="_ECO_RANGE_IDfdd30070a21548c0b7ef6016c8144021" localSheetId="0" hidden="1">TODOS!$V$2:$V$7538</definedName>
-    <definedName name="_ECO_RANGE_IDfe6555c6877a4bafb85de293c09481f7" localSheetId="0" hidden="1">TODOS!$GC$2:$GC$7538</definedName>
-    <definedName name="_ECO_RANGE_IDfe83727996fa42f68d250e3d4e2751e4" localSheetId="0" hidden="1">TODOS!$HD$2:$HD$7538</definedName>
-    <definedName name="_ECO_RANGE_IDfe9c8f5df4e44da9b5056d8235508761" localSheetId="0" hidden="1">TODOS!$BJ$2:$BJ$7538</definedName>
-    <definedName name="_ECO_RANGE_IDfea0c97f793b46ed9cf830aec017c86f" localSheetId="0" hidden="1">TODOS!$DE$2:$DE$7538</definedName>
-    <definedName name="_ECO_RANGE_IDff6eadafd29b4aad854ab7bf33e9836e" localSheetId="0" hidden="1">TODOS!$BF$2:$BF$7538</definedName>
+    <definedName name="_ECO_RANGE_ID01b76e1c9ec9497ab31465f984b89cfa" localSheetId="0" hidden="1">TODOS!$FZ$2:$FZ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID066512294e0c4a8a82dcaa9a53e3d0dc" localSheetId="0" hidden="1">TODOS!$BR$2:$BR$7566</definedName>
+    <definedName name="_ECO_RANGE_ID071de69723eb4aeebdf558eaca1837ee" localSheetId="0" hidden="1">TODOS!$FF$2:$FF$7566</definedName>
+    <definedName name="_ECO_RANGE_ID07763ae628884b45a4db2ae468c3743a" localSheetId="0" hidden="1">TODOS!$CL$2:$CL$7566</definedName>
+    <definedName name="_ECO_RANGE_ID09393155862a4a03a985f040d17653b1" localSheetId="0" hidden="1">TODOS!$AU$2:$AU$7566</definedName>
+    <definedName name="_ECO_RANGE_ID0a40cfa3b5ae4ef7a5b908ba6b39df29" localSheetId="0" hidden="1">TODOS!$AJ$2:$AJ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID0c25bdafd7bc4ed4b24e678d14f0b0f8" localSheetId="0" hidden="1">TODOS!$DT$2:$DT$7566</definedName>
+    <definedName name="_ECO_RANGE_ID0c46c945fa4a4693a76b9a119f25ae6f" localSheetId="0" hidden="1">TODOS!$DY$2:$DY$7566</definedName>
+    <definedName name="_ECO_RANGE_ID0cc3da72ce9844c7aa1fbcddafbbec25" localSheetId="0" hidden="1">TODOS!$BX$2:$BX$7566</definedName>
+    <definedName name="_ECO_RANGE_ID0d743fb8274d4cabab0783b5ae8c5d99" localSheetId="0" hidden="1">TODOS!$CS$2:$CS$7566</definedName>
+    <definedName name="_ECO_RANGE_ID0df31b008c4e4b939b824c8d91a42898" localSheetId="0" hidden="1">TODOS!$CX$2:$CX$7566</definedName>
+    <definedName name="_ECO_RANGE_ID0e487c0349564787877d2bb44ba39f95" localSheetId="0" hidden="1">TODOS!$CG$2:$CG$7566</definedName>
+    <definedName name="_ECO_RANGE_ID0e520a5f90e543a594e6e33cb898b41e" localSheetId="0" hidden="1">TODOS!$AE$2:$AE$7566</definedName>
+    <definedName name="_ECO_RANGE_ID0f7c7bab39074f4690aa637647d6c9b6" localSheetId="0" hidden="1">TODOS!$EI$2:$EI$7566</definedName>
+    <definedName name="_ECO_RANGE_ID100147806f384ebc919d2a8df602f1e0" localSheetId="0" hidden="1">TODOS!$N$2:$N$7566</definedName>
+    <definedName name="_ECO_RANGE_ID1354a24d7f08424585e631a97c459401" localSheetId="0" hidden="1">TODOS!$DB$2:$DB$7566</definedName>
+    <definedName name="_ECO_RANGE_ID15c44c475dfe447ab6232f66bec1f9cc" localSheetId="0" hidden="1">TODOS!$DH$2:$DH$7566</definedName>
+    <definedName name="_ECO_RANGE_ID15e1f8b0aec448f98967dad03991c92e" localSheetId="0" hidden="1">TODOS!$GJ$2:$GJ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID16ae4f18deec4fc5a154ce525bb7aef7" localSheetId="0" hidden="1">TODOS!$BO$2:$BO$7566</definedName>
+    <definedName name="_ECO_RANGE_ID185d0eaf956e45298d91a0ac1880df47" localSheetId="0" hidden="1">TODOS!$S$2:$S$7566</definedName>
+    <definedName name="_ECO_RANGE_ID189404c168de48bfb3324a8bc33672cb" localSheetId="0" hidden="1">TODOS!$FV$2:$FV$7566</definedName>
+    <definedName name="_ECO_RANGE_ID1bbd60aa759a4139a7d6f49aa27c2fbe" localSheetId="0" hidden="1">TODOS!$FK$2:$FK$7566</definedName>
+    <definedName name="_ECO_RANGE_ID1d6e471ae83a4e698a9f1caa907f3d59" localSheetId="0" hidden="1">TODOS!$CE$2:$CE$7566</definedName>
+    <definedName name="_ECO_RANGE_ID1e8de8e4240e4aba8975d06f62e41a7d" localSheetId="0" hidden="1">TODOS!$CF$2:$CF$7566</definedName>
+    <definedName name="_ECO_RANGE_ID202c938704e6405ba03c0548bcfcea87" localSheetId="0" hidden="1">TODOS!$Q$2:$Q$7566</definedName>
+    <definedName name="_ECO_RANGE_ID2061c18a9df94413b951503224f85b8e" localSheetId="0" hidden="1">TODOS!$BV$2:$BV$7566</definedName>
+    <definedName name="_ECO_RANGE_ID2312b053ebae4b8ea6ffa03632ccffdc" localSheetId="0" hidden="1">TODOS!$HE$2:$HE$7566</definedName>
+    <definedName name="_ECO_RANGE_ID2316c17b3f5940acaecd3d1eb1c0a9f0" localSheetId="0" hidden="1">TODOS!$DN$2:$DN$7566</definedName>
+    <definedName name="_ECO_RANGE_ID23e861a5100a4698ad56b446882ae4c2" localSheetId="0" hidden="1">TODOS!$DS$2:$DS$7566</definedName>
+    <definedName name="_ECO_RANGE_ID24a882ed8c57402dba924637620b46df" localSheetId="0" hidden="1">TODOS!$J$2:$J$7566</definedName>
+    <definedName name="_ECO_RANGE_ID2544da8812b245579a44a35bd2b6f83a" localSheetId="0" hidden="1">TODOS!$AZ$2:$AZ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID25f05a3b2b374e848b95ce3a1802ad33" localSheetId="0" hidden="1">TODOS!$EW$2:$EW$7566</definedName>
+    <definedName name="_ECO_RANGE_ID2694980414b74c839d3c8d4f92fc5f3e" localSheetId="0" hidden="1">TODOS!$BQ$2:$BQ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID270dd723e9b749b0a7317e277811e940" localSheetId="0" hidden="1">TODOS!$EE$2:$EE$7566</definedName>
+    <definedName name="_ECO_RANGE_ID2a180318a80c4a6c86fea422e52cf6fa" localSheetId="0" hidden="1">TODOS!$FH$2:$FH$7566</definedName>
+    <definedName name="_ECO_RANGE_ID2c81c472446043cc8f64283506bcfab9" localSheetId="0" hidden="1">TODOS!$DQ$2:$DQ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID2d707bce9c4348779f7132c03a0d6a9f" localSheetId="0" hidden="1">TODOS!$AO$2:$AO$7566</definedName>
+    <definedName name="_ECO_RANGE_ID2f895fa993f54b9b83d78d0ffdf2db48" localSheetId="0" hidden="1">TODOS!$CA$2:$CA$7566</definedName>
+    <definedName name="_ECO_RANGE_ID30548c8d2a904547b39a043a90a802d5" localSheetId="0" hidden="1">TODOS!$GH$2:$GH$7566</definedName>
+    <definedName name="_ECO_RANGE_ID31e9b284844e4e04808e8126782867d1" localSheetId="0" hidden="1">TODOS!$CM$2:$CM$7566</definedName>
+    <definedName name="_ECO_RANGE_ID321f347c95de4637b9d3c436ae208b56" localSheetId="0" hidden="1">TODOS!$GQ$2:$GQ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID339defb23ef14f948234996823e9b448" localSheetId="0" hidden="1">TODOS!$BH$2:$BH$7566</definedName>
+    <definedName name="_ECO_RANGE_ID3451cbc402e8447c89505060f54493fd" localSheetId="0" hidden="1">TODOS!$GX$2:$GX$7566</definedName>
+    <definedName name="_ECO_RANGE_ID34b784efe5db4d57902c2240c56dc039" localSheetId="0" hidden="1">TODOS!$GU$2:$GU$7566</definedName>
+    <definedName name="_ECO_RANGE_ID350298be5ff64d7db926d5798678f905" localSheetId="0" hidden="1">TODOS!$R$2:$R$7566</definedName>
+    <definedName name="_ECO_RANGE_ID368cfefa28634f43bb82546142a7c8ee" localSheetId="0" hidden="1">TODOS!$EV$2:$EV$7566</definedName>
+    <definedName name="_ECO_RANGE_ID37578d49573b4778beb06104310ca092" localSheetId="0" hidden="1">TODOS!$EG$2:$EG$7566</definedName>
+    <definedName name="_ECO_RANGE_ID37a22aa74a9e4982b8cbfd05385370bb" localSheetId="0" hidden="1">TODOS!$CK$2:$CK$7566</definedName>
+    <definedName name="_ECO_RANGE_ID3811d16bcdeb44b0a342f162bf6203f3" localSheetId="0" hidden="1">TODOS!$CY$2:$CY$7566</definedName>
+    <definedName name="_ECO_RANGE_ID3a0e602a479341ccae2e852a171a7421" localSheetId="0" hidden="1">TODOS!$GE$2:$GE$7566</definedName>
+    <definedName name="_ECO_RANGE_ID3a904892a92846599374bc91244f5744" localSheetId="0" hidden="1">TODOS!$DJ$2:$DJ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID3aead734c5f54222bd0f4e0b54f532c8" localSheetId="0" hidden="1">TODOS!$GP$2:$GP$7566</definedName>
+    <definedName name="_ECO_RANGE_ID3d7e85efe827431895caa2c7cc257203" localSheetId="0" hidden="1">TODOS!$HH$2:$HH$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4300ff9445be4ae6a53e49134223fad0" localSheetId="0" hidden="1">TODOS!$ER$2:$ER$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4526d216aea848b7a1373fae32ca7d22" localSheetId="0" hidden="1">TODOS!$W$2:$W$7566</definedName>
+    <definedName name="_ECO_RANGE_ID45c8c501b38048b4a901b1b5bb148919" localSheetId="0" hidden="1">TODOS!$GI$2:$GI$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4605e1d7215946ac9f73646a95798495" localSheetId="0" hidden="1">TODOS!$EY$2:$EY$7566</definedName>
+    <definedName name="_ECO_RANGE_ID46efb2cc990d478ebada9b7257bec7a6" localSheetId="0" hidden="1">TODOS!$BS$2:$BS$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4733cf6813164c4a898853c34596a147" localSheetId="0" hidden="1">TODOS!$BA$2:$BA$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4847347b28ea4f85b5cf0387c1651bc4" localSheetId="0" hidden="1">TODOS!$GW$2:$GW$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4bcb6d24cf7048bcbe985516de8e38a7" localSheetId="0" hidden="1">TODOS!$HF$2:$HF$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4c85772161354302b02effe52f539186" localSheetId="0" hidden="1">TODOS!$AN$2:$AN$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4ddfad1dbf2f413995f718cb7458cd7d" localSheetId="0" hidden="1">TODOS!$GS$2:$GS$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4e69d74b4dfb4db39e7c171e843ecbbd" localSheetId="0" hidden="1">TODOS!$BD$2:$BD$7566</definedName>
+    <definedName name="_ECO_RANGE_ID4ec9a7f06fe54f94984fd764eae76b57" localSheetId="0" hidden="1">TODOS!$L$2:$L$7566</definedName>
+    <definedName name="_ECO_RANGE_ID5299b2bbbc78491bb783dfed48ca653f" localSheetId="0" hidden="1">TODOS!$G$2:$G$7566</definedName>
+    <definedName name="_ECO_RANGE_ID53d6806b7e9a422b8a551142079607a5" localSheetId="0" hidden="1">TODOS!$BM$2:$BM$7566</definedName>
+    <definedName name="_ECO_RANGE_ID54fba4432fd7493eb0d868afbcfc2780" localSheetId="0" hidden="1">TODOS!$FI$2:$FI$7566</definedName>
+    <definedName name="_ECO_RANGE_ID56d9f72f107144c498b7ed7283219d08" localSheetId="0" hidden="1">TODOS!$CR$2:$CR$7566</definedName>
+    <definedName name="_ECO_RANGE_ID57084d94136f403482d03d1e48fae944" localSheetId="0" hidden="1">TODOS!$AD$2:$AD$7566</definedName>
+    <definedName name="_ECO_RANGE_ID576713273f7f47f2b4ca63a037224a59" localSheetId="0" hidden="1">TODOS!$HA$2:$HA$7566</definedName>
+    <definedName name="_ECO_RANGE_ID57d67e236fc94650ab4e136449023222" localSheetId="0" hidden="1">TODOS!$P$2:$P$7566</definedName>
+    <definedName name="_ECO_RANGE_ID585587351e8c446898797e6def0ede43" localSheetId="0" hidden="1">TODOS!$CQ$2:$CQ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID59278719563b4454a8179222b58c530e" localSheetId="0" hidden="1">TODOS!$CZ$2:$CZ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID5cb042984f354203af277c6d7a4cd9ed" localSheetId="0" hidden="1">TODOS!$X$2:$X$7566</definedName>
+    <definedName name="_ECO_RANGE_ID5db53e23f7074049ba05224f1b1345b8" localSheetId="0" hidden="1">TODOS!$U$2:$U$7566</definedName>
+    <definedName name="_ECO_RANGE_ID5e95a04e952845e39f762e061adb9454" localSheetId="0" hidden="1">TODOS!$EK$2:$EK$7566</definedName>
+    <definedName name="_ECO_RANGE_ID613c6ecee7b9431d9c88f64b06b9a304" localSheetId="0" hidden="1">TODOS!$EQ$2:$EQ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID638e334b2363479197c2902b2173778a" localSheetId="0" hidden="1">TODOS!$GC$2:$GC$7566</definedName>
+    <definedName name="_ECO_RANGE_ID63ecc1fec7694f0bb5c8e5c60a2ed355" localSheetId="0" hidden="1">TODOS!$ES$2:$ES$7566</definedName>
+    <definedName name="_ECO_RANGE_ID648e03ae690545c39de2b58fea185834" localSheetId="0" hidden="1">TODOS!$BW$2:$BW$7566</definedName>
+    <definedName name="_ECO_RANGE_ID671d4960ba284964ab07a850fd905934" localSheetId="0" hidden="1">TODOS!$DV$2:$DV$7566</definedName>
+    <definedName name="_ECO_RANGE_ID679cf8ffb6a74870819e34a4af5caeb4" localSheetId="0" hidden="1">TODOS!$BT$2:$BT$7566</definedName>
+    <definedName name="_ECO_RANGE_ID6b1221f9c54e425f8ae64d0bd1dc0c59" localSheetId="0" hidden="1">TODOS!$EM$2:$EM$7566</definedName>
+    <definedName name="_ECO_RANGE_ID6bd5a337187441a688ef5b8ce2781aeb" localSheetId="0" hidden="1">TODOS!$BE$2:$BE$7566</definedName>
+    <definedName name="_ECO_RANGE_ID6d7881a6adc44a5c949fb907295a53b1" localSheetId="0" hidden="1">TODOS!$AF$2:$AF$7566</definedName>
+    <definedName name="_ECO_RANGE_ID6e97ed8915344be89785d1d021fda1c7" localSheetId="0" hidden="1">TODOS!$FQ$2:$FQ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID6ee6f05e1d834a58aa8b85f267e8748e" localSheetId="0" hidden="1">TODOS!$DM$2:$DM$7566</definedName>
+    <definedName name="_ECO_RANGE_ID6fe4a095e96748aa96d02b64d3d48c87" localSheetId="0" hidden="1">TODOS!$BL$2:$BL$7566</definedName>
+    <definedName name="_ECO_RANGE_ID71bf46a376614f4896424f4905f3549a" localSheetId="0" hidden="1">TODOS!$I$2:$I$7566</definedName>
+    <definedName name="_ECO_RANGE_ID71d8489b5fbf475dba4f479875f04a11" localSheetId="0" hidden="1">TODOS!$AX$2:$AX$7566</definedName>
+    <definedName name="_ECO_RANGE_ID72c0f5ea8735433b8df177beb8a1462a" localSheetId="0" hidden="1">TODOS!$DZ$2:$DZ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID73612875b6d6491b9e11ecd04c2e5823" localSheetId="0" hidden="1">TODOS!$EA$2:$EA$7566</definedName>
+    <definedName name="_ECO_RANGE_ID74995e69a24341f5a59940db68bd057a" localSheetId="0" hidden="1">TODOS!$AW$2:$AW$7566</definedName>
+    <definedName name="_ECO_RANGE_ID7509eabc33d04f11a43580305dfceafe" localSheetId="0" hidden="1">TODOS!$AP$2:$AP$7566</definedName>
+    <definedName name="_ECO_RANGE_ID7510e583dd074be2a6ec0c7ff73b0892" localSheetId="0" hidden="1">TODOS!$HD$2:$HD$7566</definedName>
+    <definedName name="_ECO_RANGE_ID7a3d810c980d443eae4abcceef48260c" localSheetId="0" hidden="1">TODOS!$AG$2:$AG$7566</definedName>
+    <definedName name="_ECO_RANGE_ID7baa2642feac4918ac850b5dd74d6a36" localSheetId="0" hidden="1">TODOS!$F$2:$F$7566</definedName>
+    <definedName name="_ECO_RANGE_ID7bd0629e6c674ce192073f7e1029361e" localSheetId="0" hidden="1">TODOS!$FU$2:$FU$7566</definedName>
+    <definedName name="_ECO_RANGE_ID7f3e725ade6f4f4d9f632362217309c3" localSheetId="0" hidden="1">TODOS!$T$2:$T$7566</definedName>
+    <definedName name="_ECO_RANGE_ID7fa45463b34a402e93cd5e3020bb54f0" localSheetId="0" hidden="1">TODOS!$AM$2:$AM$7566</definedName>
+    <definedName name="_ECO_RANGE_ID83cf06a4b9c54d35b78902cf576071ce" localSheetId="0" hidden="1">TODOS!$CD$2:$CD$7566</definedName>
+    <definedName name="_ECO_RANGE_ID860187e0a9c64bacbb5dd4a2aed3b5a5" localSheetId="0" hidden="1">TODOS!$FB$2:$FB$7566</definedName>
+    <definedName name="_ECO_RANGE_ID86ba3d397dbf4314bb3541b7d98a989b" localSheetId="0" hidden="1">TODOS!$FX$2:$FX$7566</definedName>
+    <definedName name="_ECO_RANGE_ID884018ba68764093823e0affc7ad6669" localSheetId="0" hidden="1">TODOS!$FS$2:$FS$7566</definedName>
+    <definedName name="_ECO_RANGE_ID89e6919462ed41fcaf31a4fa1bb459bc" localSheetId="0" hidden="1">TODOS!$GA$2:$GA$7566</definedName>
+    <definedName name="_ECO_RANGE_ID8bd7562281fb4eccb30d39c61e5f6fdd" localSheetId="0" hidden="1">TODOS!$BZ$2:$BZ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID8d05c98887f8480ca18aebe7c70b56e3" localSheetId="0" hidden="1">TODOS!$GT$2:$GT$7566</definedName>
+    <definedName name="_ECO_RANGE_ID8d93ab434aad44eead0312b442f25689" localSheetId="0" hidden="1">TODOS!$DA$2:$DA$7566</definedName>
+    <definedName name="_ECO_RANGE_ID8e2c67739d9e4752b438969d218fdcda" localSheetId="0" hidden="1">TODOS!$AY$2:$AY$7566</definedName>
+    <definedName name="_ECO_RANGE_ID8e575170c98f459d9462aa69f776525b" localSheetId="0" hidden="1">TODOS!$Z$2:$Z$7566</definedName>
+    <definedName name="_ECO_RANGE_ID8ea4f5c154714f15a954b7cabfa3f6f6" localSheetId="0" hidden="1">TODOS!$GO$2:$GO$7566</definedName>
+    <definedName name="_ECO_RANGE_ID91dd4bfd8cc34faaa428daae492d2017" localSheetId="0" hidden="1">TODOS!$DI$2:$DI$7566</definedName>
+    <definedName name="_ECO_RANGE_ID92226383d48a445a8cef8a04ea54c879" localSheetId="0" hidden="1">TODOS!$FR$2:$FR$7566</definedName>
+    <definedName name="_ECO_RANGE_ID943b6ef88d60458e8006b97426517e0b" localSheetId="0" hidden="1">TODOS!$GG$2:$GG$7566</definedName>
+    <definedName name="_ECO_RANGE_ID94b454b3a18646c2bd3b3b188e872273" localSheetId="0" hidden="1">TODOS!$D$2:$D$7566</definedName>
+    <definedName name="_ECO_RANGE_ID96c82fd002aa4375813dc06bb774c0ef" localSheetId="0" hidden="1">TODOS!$AT$2:$AT$7566</definedName>
+    <definedName name="_ECO_RANGE_ID96e5e214ab924d839067f0c8be97400d" localSheetId="0" hidden="1">TODOS!$K$2:$K$7566</definedName>
+    <definedName name="_ECO_RANGE_ID96e74789c7084898b1f5d95663c8afea" localSheetId="0" hidden="1">TODOS!$BF$2:$BF$7566</definedName>
+    <definedName name="_ECO_RANGE_ID97d480d861f243098081d51eb64e8483" localSheetId="0" hidden="1">TODOS!$CJ$2:$CJ$7566</definedName>
+    <definedName name="_ECO_RANGE_ID9b06c8897f1744ff82e6d7ee7a5703dd" localSheetId="0" hidden="1">TODOS!$DU$2:$DU$7566</definedName>
+    <definedName name="_ECO_RANGE_ID9c7cb3a4669e45cc8883663402f02cf6" localSheetId="0" hidden="1">TODOS!$DF$2:$DF$7566</definedName>
+    <definedName name="_ECO_RANGE_ID9d7c2acf925d43a39b12b4160dd7c541" localSheetId="0" hidden="1">TODOS!$CU$2:$CU$7566</definedName>
+    <definedName name="_ECO_RANGE_ID9d7d75dd66e94408a67ccdc5792de98e" localSheetId="0" hidden="1">TODOS!$CB$2:$CB$7566</definedName>
+    <definedName name="_ECO_RANGE_ID9de3ef478cd447faa498fb7dc58c851c" localSheetId="0" hidden="1">TODOS!$HI$2:$HI$7566</definedName>
+    <definedName name="_ECO_RANGE_ID9de90275b7a5439595d40d3bdba19b5a" localSheetId="0" hidden="1">TODOS!$FN$2:$FN$7566</definedName>
+    <definedName name="_ECO_RANGE_ID9ecdc2deba7f4bfa8e4e0808bd0dda76" localSheetId="0" hidden="1">TODOS!$FY$2:$FY$7566</definedName>
+    <definedName name="_ECO_RANGE_ID9f30c6fb31fd4dcfb14e3c8cc5720768" localSheetId="0" hidden="1">TODOS!$ET$2:$ET$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa04cf9f7e25d436e813816099d29e471" localSheetId="0" hidden="1">TODOS!$HB$2:$HB$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa07b96dcdb76466e80fc55a26c06aace" localSheetId="0" hidden="1">TODOS!$CW$2:$CW$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa094df5115454ac0926551e5e6a48e96" localSheetId="0" hidden="1">TODOS!$EH$2:$EH$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa4b0468bf3354e88a88c194ed7dc6a06" localSheetId="0" hidden="1">TODOS!$DO$2:$DO$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa660a86de0814ea6ab92b4213afd25f6" localSheetId="0" hidden="1">TODOS!$BB$2:$BB$7566</definedName>
+    <definedName name="_ECO_RANGE_IDa6dc914860d043f0934dd3dc87f0c3ba" localSheetId="0" hidden="1">TODOS!$B$1</definedName>
+    <definedName name="_ECO_RANGE_IDa9beffe4974f45958b72256b4201eb83" localSheetId="0" hidden="1">TODOS!$AV$2:$AV$7566</definedName>
+    <definedName name="_ECO_RANGE_IDaab6f45027e94c879b291fbb39508074" localSheetId="0" hidden="1">TODOS!$ED$2:$ED$7566</definedName>
+    <definedName name="_ECO_RANGE_IDaaffd49f00834b7cba568e9b7e6c1508" localSheetId="0" hidden="1">TODOS!$DX$2:$DX$7566</definedName>
+    <definedName name="_ECO_RANGE_IDab2930a524cc4c3bab14564faceac79c" localSheetId="0" hidden="1">TODOS!$CO$2:$CO$7566</definedName>
+    <definedName name="_ECO_RANGE_IDabc6703ef8e7462fb7f441eb910a4d0c" localSheetId="0" hidden="1">TODOS!$FW$2:$FW$7566</definedName>
+    <definedName name="_ECO_RANGE_IDac880f041fa14760972d289231d57651" localSheetId="0" hidden="1">TODOS!$HC$2:$HC$7566</definedName>
+    <definedName name="_ECO_RANGE_IDaf87de9ea6f14129a20efe4dc7ceed64" localSheetId="0" hidden="1">TODOS!$EF$2:$EF$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb20a59c43aaf44eab1f29e673c249091" localSheetId="0" hidden="1">TODOS!$EL$2:$EL$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb364cce2df7d43b88b0a4d3aa0d2e387" localSheetId="0" hidden="1">TODOS!$DL$2:$DL$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb4ce25da6bf84ff8ad1c44424fb228ef" localSheetId="0" hidden="1">TODOS!$BC$2:$BC$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb4d59ce4891542aab28895f45114ca8d" localSheetId="0" hidden="1">TODOS!$FJ$2:$FJ$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb52ecaaa4b0d4a94bfacecc829b9c4f3" localSheetId="0" hidden="1">TODOS!$CT$2:$CT$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb594c9ce822b44d3a5af8a2e3a292be7" localSheetId="0" hidden="1">TODOS!$AL$2:$AL$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb5c872a65d324d5cbd0b2470c0ca5470" localSheetId="0" hidden="1">TODOS!$GB$2:$GB$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb680f33dfb424f62a9b01b6f81ea6c72" localSheetId="0" hidden="1">TODOS!$GY$2:$GY$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb69f9961c47348098025a73135056357" localSheetId="0" hidden="1">TODOS!$FC$2:$FC$7566</definedName>
+    <definedName name="_ECO_RANGE_IDb6feff302b634090ab609c58003eaa03" localSheetId="0" hidden="1">TODOS!$DD$2:$DD$7566</definedName>
+    <definedName name="_ECO_RANGE_IDbaa1746a5f7b4d5790826d6316bca7b0" localSheetId="0" hidden="1">TODOS!$EJ$2:$EJ$7566</definedName>
+    <definedName name="_ECO_RANGE_IDbaf9d167bc024ea49b508e3d7c52f284" localSheetId="0" hidden="1">TODOS!$DP$2:$DP$7566</definedName>
+    <definedName name="_ECO_RANGE_IDbcc2dcfc139a4a4cb572fec6d1138bf3" localSheetId="0" hidden="1">TODOS!$FP$2:$FP$7566</definedName>
+    <definedName name="_ECO_RANGE_IDbcf470afdf7140f8bfe1c55825b4d41c" localSheetId="0" hidden="1">TODOS!$CN$2:$CN$7566</definedName>
+    <definedName name="_ECO_RANGE_IDbd221f24ead64f8391536b3fbf88a2f1" localSheetId="0" hidden="1">TODOS!$FT$2:$FT$7566</definedName>
+    <definedName name="_ECO_RANGE_IDbdc26616bb284c8cb7628ec04d346524" localSheetId="0" hidden="1">TODOS!$EC$2:$EC$7566</definedName>
+    <definedName name="_ECO_RANGE_IDbe1a57c6c912464a9debc36afefdf9c8" localSheetId="0" hidden="1">TODOS!$GF$2:$GF$7566</definedName>
+    <definedName name="_ECO_RANGE_IDbfae0e0a85bb41d3ba9466ae38b312d3" localSheetId="0" hidden="1">TODOS!$FD$2:$FD$7566</definedName>
+    <definedName name="_ECO_RANGE_IDbfd3ac35bfb34d3da2387fc21fabd845" localSheetId="0" hidden="1">TODOS!$FE$2:$FE$7566</definedName>
+    <definedName name="_ECO_RANGE_IDc17c0c32c20d4c1092dac42e1889e6e1" localSheetId="0" hidden="1">TODOS!$CC$2:$CC$7566</definedName>
+    <definedName name="_ECO_RANGE_IDc2695342fe0e48c4a70fd7e7073157a8" localSheetId="0" hidden="1">TODOS!$O$2:$O$7566</definedName>
+    <definedName name="_ECO_RANGE_IDc351efc57bb64052a31e8824652b4e2f" localSheetId="0" hidden="1">TODOS!$AC$2:$AC$7566</definedName>
+    <definedName name="_ECO_RANGE_IDc408002437dc461dbebd6b46e57608dd" localSheetId="0" hidden="1">TODOS!$DE$2:$DE$7566</definedName>
+    <definedName name="_ECO_RANGE_IDc554fcd2214c49279c60544f121e5afe" localSheetId="0" hidden="1">TODOS!$GV$2:$GV$7566</definedName>
+    <definedName name="_ECO_RANGE_IDc741ae33498d434f9f1bb9558510a2a4" localSheetId="0" hidden="1">TODOS!$CH$2:$CH$7566</definedName>
+    <definedName name="_ECO_RANGE_IDc87f744ef287489f9a98788f27fd9293" localSheetId="0" hidden="1">TODOS!$DR$2:$DR$7566</definedName>
+    <definedName name="_ECO_RANGE_IDc9bdb1ce3d474b848d31af27f17c22db" localSheetId="0" hidden="1">TODOS!$GD$2:$GD$7566</definedName>
+    <definedName name="_ECO_RANGE_IDcc1d48294ec54c08a5c7bdbfecf18e6e" localSheetId="0" hidden="1">TODOS!$FM$2:$FM$7566</definedName>
+    <definedName name="_ECO_RANGE_IDce4dc3bc89ed43a58c6551141f343f01" localSheetId="0" hidden="1">TODOS!$FO$2:$FO$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd077fccc90e147ce8a1c95de5c8c1104" localSheetId="0" hidden="1">TODOS!$DK$2:$DK$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd0ef279e85dc47cc979de3decf8c21af" localSheetId="0" hidden="1">TODOS!$GZ$2:$GZ$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd2a24ae1391945a98ed0409fa438a5fe" localSheetId="0" hidden="1">TODOS!$AA$2:$AA$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd47f85d0a21e45a3ac09b5d929240e24" localSheetId="0" hidden="1">TODOS!$HG$2:$HG$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd512eb238e1e406ca6c5bbf1ee3efc77" localSheetId="0" hidden="1">TODOS!$BJ$2:$BJ$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd6903a91c3c342fb99c7d156798e5f3c" localSheetId="0" hidden="1">TODOS!$HJ$2:$HJ$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd6973ea346f04e08be72283d31de60e4" localSheetId="0" hidden="1">TODOS!$AI$2:$AI$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd7f0ec6589364a6b98a70862614ea03f" localSheetId="0" hidden="1">TODOS!$GK$2:$GK$7566</definedName>
+    <definedName name="_ECO_RANGE_IDd94bae57b3ba478c8141fae436105a5f" localSheetId="0" hidden="1">TODOS!$AQ$2:$AQ$7566</definedName>
+    <definedName name="_ECO_RANGE_IDda9a57cfe9604c56ae01ef527eb0db5f" localSheetId="0" hidden="1">TODOS!$EX$2:$EX$7566</definedName>
+    <definedName name="_ECO_RANGE_IDdba02bde57b3444d93a9a417842a8d64" localSheetId="0" hidden="1">TODOS!$EO$2:$EO$7566</definedName>
+    <definedName name="_ECO_RANGE_IDdc46c5fdfc1841d691f94b7ff6e91bf3" localSheetId="0" hidden="1">TODOS!$CI$2:$CI$7566</definedName>
+    <definedName name="_ECO_RANGE_IDde1dbf78972f4ced81289dd905e8831a" localSheetId="0" hidden="1">TODOS!$CP$2:$CP$7566</definedName>
+    <definedName name="_ECO_RANGE_IDde9584ffef8942148f49f4a6ab46dacb" localSheetId="0" hidden="1">TODOS!$BP$2:$BP$7566</definedName>
+    <definedName name="_ECO_RANGE_IDdeba92c07f034341aeaa923be6b74df8" localSheetId="0" hidden="1">TODOS!$AB$2:$AB$7566</definedName>
+    <definedName name="_ECO_RANGE_IDdf35fa76fd4b424a91641cb9db6e719a" localSheetId="0" hidden="1">TODOS!$DC$2:$DC$7566</definedName>
+    <definedName name="_ECO_RANGE_IDdf84d859cc87499187f1705570cd0d2e" localSheetId="0" hidden="1">TODOS!$A$2:$B$7566</definedName>
+    <definedName name="_ECO_RANGE_IDdfdad95a7d7e4fc7b22794aee9de00ba" localSheetId="0" hidden="1">TODOS!$H$2:$H$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe06617f6912a4a46962625009ddf9bd3" localSheetId="0" hidden="1">TODOS!$EN$2:$EN$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe21ea8abc19a41e5a99dc55a9138163d" localSheetId="0" hidden="1">TODOS!$AS$2:$AS$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe2adf3a1850d4f0e886cad07b0b4c8a7" localSheetId="0" hidden="1">TODOS!$CV$2:$CV$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe4ff5c872ae04644a07533435e801818" localSheetId="0" hidden="1">TODOS!$GL$2:$GL$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe55ce20609444256949c634a3a59b877" localSheetId="0" hidden="1">TODOS!$EP$2:$EP$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe6a7a1ef95f140798e821f8442b80b9c" localSheetId="0" hidden="1">TODOS!$HK$2:$HK$7566</definedName>
+    <definedName name="_ECO_RANGE_IDe9f962b591494eb2b562a0c27e5f348c" localSheetId="0" hidden="1">TODOS!$AR$2:$AR$7566</definedName>
+    <definedName name="_ECO_RANGE_IDeb4b7278854243e2bf69223c57fcf3fe" localSheetId="0" hidden="1">TODOS!$V$2:$V$7566</definedName>
+    <definedName name="_ECO_RANGE_IDebef8d217f374789b0a56a38e3548f90" localSheetId="0" hidden="1">TODOS!$DG$2:$DG$7566</definedName>
+    <definedName name="_ECO_RANGE_IDecd70954b1f443c98f7e85c054c8a9b3" localSheetId="0" hidden="1">TODOS!$C$2:$C$7566</definedName>
+    <definedName name="_ECO_RANGE_IDed47a1c255b14cedb1cb20808ee11f09" localSheetId="0" hidden="1">TODOS!$EB$2:$EB$7566</definedName>
+    <definedName name="_ECO_RANGE_IDeee5974c5a46432893c0e4e429142441" localSheetId="0" hidden="1">TODOS!$BK$2:$BK$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf1a8c7a99882452bab9e693067f32a67" localSheetId="0" hidden="1">TODOS!$EU$2:$EU$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf2bffd5ce09345f4b1b6d43625530b8a" localSheetId="0" hidden="1">TODOS!$BI$2:$BI$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf35f4d7a27204812b1bd045290090dd7" localSheetId="0" hidden="1">TODOS!$BG$2:$BG$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf374dd5e566b4a97884f6679945ef154" localSheetId="0" hidden="1">TODOS!$GR$2:$GR$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf3b24784a894460692d742150d4f204a" localSheetId="0" hidden="1">TODOS!$Y$2:$Y$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf47d67b4f4f5448795c2d1bc06dc7eb1" localSheetId="0" hidden="1">TODOS!$BU$2:$BU$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf60a03ba1c42491b857b7997d9909ca7" localSheetId="0" hidden="1">TODOS!$AK$2:$AK$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf93cee8095434297911913c327737498" localSheetId="0" hidden="1">TODOS!$E$2:$E$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf9b3e53ad3b240158e82a5e611d72e4a" localSheetId="0" hidden="1">TODOS!$AH$2:$AH$7566</definedName>
+    <definedName name="_ECO_RANGE_IDf9e75504a1b14bb6a5b225bcebadeb86" localSheetId="0" hidden="1">TODOS!$FA$2:$FA$7566</definedName>
+    <definedName name="_ECO_RANGE_IDfe8e9c3c293b4a9c88110ccd41aca70e" localSheetId="0" hidden="1">TODOS!$EZ$2:$EZ$7566</definedName>
+    <definedName name="_ECO_RANGE_IDfe93f74924a74ef0b6e4a309bd71689f" localSheetId="0" hidden="1">TODOS!$M$2:$M$7566</definedName>
+    <definedName name="_ECO_RANGE_IDff4534c901024cdfb99507e9f7caa1ff" localSheetId="0" hidden="1">TODOS!$BY$2:$BY$7566</definedName>
+    <definedName name="_ECO_RANGE_IDffc7cfc68cba44719524bc107698d365" localSheetId="0" hidden="1">TODOS!$BN$2:$BN$7566</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -976,1592 +976,1546 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b98c67b9-159f-4ce4-8dbb-71d036abaa37</stp>
-        <tr r="FF1" s="24"/>
+        <stp>58c817a2-0668-485a-b135-4bd52e0a1f6d</stp>
+        <tr r="BK1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>3c345cb6-fdab-4a3f-90d2-588df521cf4b</stp>
+        <stp>3741b9ad-9b8c-4202-b496-2e8217e65b92</stp>
+        <tr r="EU1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2a50d463-b99a-4a49-ae6e-2a585334af1d</stp>
+        <tr r="GB1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8ec53670-8f61-420c-aea8-d3bd8ce975f0</stp>
+        <tr r="D1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>241e4b8d-0a9c-47de-b8e1-67bc7d3789df</stp>
+        <tr r="A1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bb5789ae-d832-484c-a8b4-751f7ce66db4</stp>
+        <tr r="AI1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>38339fc7-d687-428f-965d-0cf68d182bef</stp>
+        <tr r="GE1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>68b6ee17-cab8-4eba-a1c2-8159135df214</stp>
         <tr r="AR1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>cbf518c5-a7d2-4265-8968-1bceee1f50a3</stp>
-        <tr r="GE1" s="24"/>
+        <stp>209de03d-f8fd-45d7-b26b-39bffe792742</stp>
+        <tr r="CL1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c17f2d00-cd10-4762-9f8f-1c7773583c3d</stp>
-        <tr r="AD1" s="24"/>
+        <stp>e5895733-2b83-4703-99f2-e41d895aedbf</stp>
+        <tr r="BD1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>23168b4d-471e-447d-954b-b163534c68c8</stp>
-        <tr r="W1" s="24"/>
+        <stp>a2b1c7dd-7327-41b7-ab5b-985d316e844b</stp>
+        <tr r="EJ1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>5cf26ea5-5bbd-47c8-8e1a-1e53ec14a308</stp>
-        <tr r="EI1" s="24"/>
+        <stp>ddc96154-2dfa-496d-b8ab-69cf5e20e3d3</stp>
+        <tr r="AL1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>021ac422-9ce5-4825-90a1-52bd648bdba5</stp>
-        <tr r="AQ1" s="24"/>
+        <stp>a75c033f-6450-44d5-a028-da56587b7aad</stp>
+        <tr r="HG1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>bf250684-957d-4196-b8a3-0cc93b743087</stp>
-        <tr r="HK1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f8a48473-cdda-40a4-a777-030e8409de87</stp>
-        <tr r="AL1" s="24"/>
+        <stp>e8caa36b-c6db-494d-a574-9f55ee8ec514</stp>
+        <tr r="J1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>434dfe3a-4a3a-4855-9390-b1f0b2055c84</stp>
-        <tr r="G1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a2776ce9-a328-4e18-af3b-d0765398868b</stp>
-        <tr r="HB1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f12dc605-0e32-4db3-b9b5-235a9b3b0973</stp>
-        <tr r="GS1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>94ab1726-90f7-4672-8335-0fb11597ee3f</stp>
-        <tr r="GC1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>918a240e-25a9-4982-a77d-7c32b8f0dd51</stp>
-        <tr r="CW1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>320beca6-44fa-47b4-8d73-dfa2f82cc530</stp>
-        <tr r="DN1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>530174ff-7b7c-4b45-9906-f654590f4774</stp>
-        <tr r="FB1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>29f764d0-01b5-43d6-8ee3-6a8f3dce1f71</stp>
-        <tr r="CR1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4b5edbba-c399-47a6-ae8e-33daa6d4befa</stp>
-        <tr r="BD1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ca58fe06-0c4c-4f34-9f35-59d4c6aa2136</stp>
-        <tr r="AP1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f4d0c513-ccd2-4325-bc06-97209ef4b87a</stp>
-        <tr r="CB1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cb2bbc29-a673-4eed-8132-d961bf771d0a</stp>
-        <tr r="FO1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>65cdc03e-be26-4c7b-8e59-51d6553a6814</stp>
-        <tr r="DX1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5198b948-000e-4937-b449-e543465fd340</stp>
-        <tr r="L1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7ae24d01-c0b6-4be0-825b-89cd2c7f720c</stp>
-        <tr r="EG1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ae63d132-a0ef-4ab6-bca1-f935a14c0aba</stp>
-        <tr r="FQ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>17a22371-3acf-4bee-8cac-38c477575675</stp>
+        <stp>d0b9ead8-28fe-41b8-9dec-9cbfb228ab87</stp>
         <tr r="DI1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>55e7a5fc-81a7-4f4c-938c-f3a308273b19</stp>
-        <tr r="BO1" s="24"/>
+        <stp>11b95980-7fdd-4cf3-80cb-426de2095bbe</stp>
+        <tr r="EI1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>e7e7024e-d110-4235-a9a0-d73c992ff18c</stp>
-        <tr r="DT1" s="24"/>
+        <stp>ca021152-98bc-4aa1-97a6-9498c5d7f669</stp>
+        <tr r="FB1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>16781fd4-f4c4-4a4e-9a8b-826e8cfc9000</stp>
-        <tr r="DA1" s="24"/>
+        <stp>fadeeaf8-6220-4439-9661-089d365df9fe</stp>
+        <tr r="DH1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>236798d7-3993-4d17-b05b-e6a2035196bd</stp>
-        <tr r="FL1" s="24"/>
+        <stp>84831f8f-d708-4233-a6f1-70ef4dabd93b</stp>
+        <tr r="BZ1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>522af4c6-182c-49c4-82b8-a84883961ce8</stp>
+        <stp>b9f19590-2c8b-4a20-a6b4-faa80ec0df85</stp>
+        <tr r="CQ1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>83ec9bf2-4e71-4118-a5a8-40e74177339c</stp>
+        <tr r="GA1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>be2fb0f2-e03f-4396-acf0-d89b4d5812b8</stp>
+        <tr r="DW1" s="24"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>ea9209de-1c9a-47e1-ad7f-b5d8c11f4e6d</stp>
+        <tr r="FL1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e4d19f95-b545-499d-a31e-beffc80396f4</stp>
+        <tr r="AO1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>50f07d84-faa6-42a5-904e-49b3de501a3f</stp>
+        <tr r="FQ1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d5def889-4099-4033-99cd-bcd1d4db7065</stp>
+        <tr r="S1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2409ad29-b274-4541-bd90-de9c9deef5b7</stp>
+        <tr r="AD1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>414baa03-5d9f-42be-939c-c6831c613cf5</stp>
+        <tr r="BS1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>dbb0fc2e-d112-4e9a-98c3-59747513fd9f</stp>
+        <tr r="BW1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a89e5725-d4d7-4e8b-a6d2-1dd1623d6457</stp>
+        <tr r="FP1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>486f596d-9299-4e06-b838-0103bb9b9a10</stp>
+        <tr r="GC1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5f7aaba0-b4c6-4af8-a36c-da6de728f192</stp>
+        <tr r="CR1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0221430c-f893-420d-8072-ad165a4bb958</stp>
+        <tr r="BL1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2c900c3b-97e8-4d82-a96b-234ae46d72d2</stp>
+        <tr r="DG1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>511e9d62-acd8-474e-89c8-3849f6def41c</stp>
+        <tr r="P1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4d794aee-271b-44d4-a709-2885df0e5d90</stp>
+        <tr r="BV1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1d6db2c1-1b1f-486f-9093-bff135dc0b6b</stp>
+        <tr r="FI1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9763d0ec-a663-4869-a31a-db5315e520b4</stp>
+        <tr r="FJ1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e6b81d25-878f-4bac-bbb6-2dbde4a922e3</stp>
+        <tr r="HE1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f2978db7-d971-4449-a675-2afd318f3e38</stp>
+        <tr r="HJ1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>efcf4705-8ce9-4b15-82b2-c5b16a8a1cd5</stp>
+        <tr r="EP1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>97c73882-6c8b-405e-8cb3-17c5636fb3b1</stp>
+        <tr r="X1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4729286e-a128-44e0-9782-fcabf8407735</stp>
+        <tr r="BX1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>70e610a3-6126-4370-8135-4715093561e7</stp>
+        <tr r="E1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f5f82186-e1dd-4351-b199-7fef475e32ab</stp>
+        <tr r="AN1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a9fb7c56-6db2-4b32-acc4-7a9604ae6b60</stp>
+        <tr r="BY1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9931d266-29f4-4e35-a8ed-b349ab7a925a</stp>
+        <tr r="H1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6a9104fd-828f-4745-98b3-b50d448911b2</stp>
+        <tr r="EA1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9aac36a3-7299-4588-93e9-c2eaab5fdf9f</stp>
+        <tr r="GW1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b681e313-2b7f-4c27-ac80-6cb604850db1</stp>
+        <tr r="FW1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cec34942-77c9-4902-991c-94a692c0aef7</stp>
+        <tr r="DJ1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f2fae4a7-f271-4bd9-942b-4ef435ba8080</stp>
+        <tr r="BN1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e5b29128-48b3-488b-8a9e-b1f0ce803480</stp>
+        <tr r="BE1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>be9c7e23-0a3a-4f47-ba7f-a84d8370d092</stp>
+        <tr r="R1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ac4c6dcc-82b7-4dfb-bef8-a83dd04c3720</stp>
+        <tr r="HB1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e95bffa4-139e-4a6d-a84d-0f363d19a81c</stp>
+        <tr r="AU1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c93b7778-a722-4ed8-aa6e-6076ce3190b8</stp>
+        <tr r="CV1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>77d4aee6-544e-4160-84ed-fdd2aa342341</stp>
+        <tr r="FY1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fbf366a9-4d73-403d-a47b-9af2fea78320</stp>
+        <tr r="DN1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8e68dd6d-f015-4020-bc18-36143589ba6f</stp>
+        <tr r="BM1" s="24"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>ec7b5565-2bfd-462d-af57-60faf9120893</stp>
+        <tr r="GN1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>54685496-6a0b-4ea4-973f-13554676c00c</stp>
+        <tr r="BT1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>32fa7a42-41ad-4b67-b60b-9d13ee63ee8d</stp>
+        <tr r="FA1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3f149364-779f-443b-96a2-8f121aa05c33</stp>
+        <tr r="FV1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fc4f39d9-915f-474f-89a6-e438c31f7f07</stp>
+        <tr r="FT1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b5c11214-e435-4d10-8e20-03e090ff4f28</stp>
+        <tr r="DX1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>94deffec-65ac-4f25-bd43-e08a04651dd0</stp>
+        <tr r="CB1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2c8d6887-a127-4b25-b370-b620598352e5</stp>
+        <tr r="AH1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>73d0e0ca-17da-4462-92db-ceebef526b3e</stp>
+        <tr r="ET1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5464a772-a7c6-49fa-bddc-8e47301207ad</stp>
+        <tr r="CH1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0d986518-2e91-47fc-b909-5ddbda61e058</stp>
+        <tr r="GO1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>272d28d9-9a1d-442b-a72a-9fe39d6b4a01</stp>
+        <tr r="GY1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f5b87ced-ce2e-4810-a3b1-0af9fe112f31</stp>
+        <tr r="FC1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>999b5d2f-dabb-4d59-923b-906f86ee70cc</stp>
+        <tr r="FR1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>41bd115b-cc44-4283-a6c1-63c2c3d0d688</stp>
+        <tr r="C1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b8b24d6f-5078-4731-af9b-f60585619da6</stp>
+        <tr r="N1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b8a38101-f6e8-4b2a-9367-4651d1914982</stp>
+        <tr r="BG1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cf163393-806c-4831-90b0-c8760e49bef2</stp>
+        <tr r="G1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5285b209-5147-4a1b-ba5a-e563b0c38abd</stp>
+        <tr r="DQ1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a005eed2-7ae3-466f-a9d7-7ad23ec7bb51</stp>
         <tr r="DF1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>a1061ed0-9e71-446c-9376-247e9244d63e</stp>
+        <stp>1fac01f9-fc7e-4315-8af6-5f45012273e1</stp>
+        <tr r="GU1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ae0486cb-61af-495d-84fd-1575fce147f0</stp>
+        <tr r="EW1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cf2ab1f0-e304-47fb-88e9-eed49c1dd589</stp>
+        <tr r="GV1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>73c35766-4914-48ca-a128-b0ce0a63e45c</stp>
+        <tr r="FF1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>eaa90fb4-35da-4d46-a495-b9e3462c02b7</stp>
+        <tr r="FO1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>84b07b12-f561-4e70-8475-eaa2ccced3f5</stp>
+        <tr r="GJ1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f5c13309-428f-4060-a049-e0b29ba24bd8</stp>
+        <tr r="DO1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f668460f-01a0-481b-9737-d2be26c68bde</stp>
+        <tr r="L1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a4184629-8a87-4b58-9d1d-9a6477d22b1d</stp>
+        <tr r="DE1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>aea448cc-8e8c-48a7-94a4-f1015107d48f</stp>
+        <tr r="GD1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ccd7fecb-45d2-44fd-a11c-e495f77edc2f</stp>
+        <tr r="GI1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>54d86a55-08e2-4c6f-80aa-e4a7cb7d4305</stp>
+        <tr r="BH1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>41e96f22-4558-4b30-930d-8c72efa93ab9</stp>
+        <tr r="DR1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e2f65bb9-729f-4aa7-befa-1f114a9826e6</stp>
+        <tr r="K1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>00ba2489-ecd3-41dd-8f61-c17634617150</stp>
+        <tr r="BJ1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5e123b9c-cb08-40ec-a53c-631f3964193b</stp>
+        <tr r="DP1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fb9e549d-68e6-4015-b26a-107510865c6b</stp>
+        <tr r="FU1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6a45d294-2330-456a-9fb9-90a7f6a59dae</stp>
+        <tr r="EM1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a7a32d51-967f-4dc6-8047-991017432f90</stp>
+        <tr r="DC1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e7b741c1-db5b-401c-9882-e809645705e3</stp>
+        <tr r="EN1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>81191eb0-4844-46bf-a39b-d94df304e50c</stp>
+        <tr r="DV1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f5233286-41ed-440d-be8a-7227897dce8c</stp>
+        <tr r="DM1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a72e4b04-5bf1-423a-a113-3a3de40ddd75</stp>
+        <tr r="GL1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>14487cbf-61fa-464f-a108-d720816aa002</stp>
+        <tr r="HD1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3a9f5d0a-7d0a-476e-b176-ae4fae2d2a26</stp>
+        <tr r="FK1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cebbd524-0235-43e2-9b60-68f99e7e885c</stp>
+        <tr r="AW1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5397c79a-b096-4200-befe-f280241517a0</stp>
+        <tr r="BO1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c5c22cbe-23db-4d77-8de5-5d25de900612</stp>
+        <tr r="GH1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>156c063d-967a-48ad-9049-d80fc22a5a5d</stp>
+        <tr r="FM1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ebc9ff7f-099b-4b9f-b488-cbbe32c04868</stp>
+        <tr r="HA1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7535bd35-9655-4086-afb3-b98ccb965ec1</stp>
+        <tr r="DL1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3330fd1b-ee7d-424d-96e2-bf17a3a75d5e</stp>
+        <tr r="EG1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a0151f7d-1160-4957-aaae-a1fef2a690e9</stp>
+        <tr r="ED1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>09f7e293-8db2-4f80-80b6-5547fc2e459f</stp>
+        <tr r="EQ1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>54fbe262-e1e9-4c4d-9bfb-470dc21ddf1f</stp>
+        <tr r="DT1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d0b91a10-e377-40b7-8351-a76bb60995d7</stp>
+        <tr r="CU1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>56999b79-981a-4840-81fa-1930ab94ebd5</stp>
+        <tr r="DB1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>af7f57f2-937f-4f18-920f-d33cc281dc26</stp>
+        <tr r="CX1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>94a0e088-1add-4cd1-b71e-070428fd485b</stp>
+        <tr r="M1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bdb2eacb-fab2-4185-b9fc-02ad780cf91b</stp>
+        <tr r="HK1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ceea24d3-8d23-4e9e-b999-a3635796527e</stp>
+        <tr r="BC1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2312e900-1636-47d2-ad58-f286e84fb5e8</stp>
+        <tr r="AS1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>dddbcb1f-563d-474d-9e49-3d811a89de1d</stp>
+        <tr r="EH1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>74b66a8c-285e-4ddf-abca-b2598c794035</stp>
+        <tr r="AM1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>41b4f155-202f-4b20-8e71-e56a660625d5</stp>
+        <tr r="O1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0e039574-537d-41fe-a98f-91bb83272945</stp>
+        <tr r="GK1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e5a8f698-8b8c-4e3a-8c83-dfa2847fc3da</stp>
+        <tr r="CI1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d3e5c5e9-a130-49de-9267-b9d7f04b3a6a</stp>
+        <tr r="GZ1" s="24"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>4a26ccaf-444b-43d7-b8f3-616768e942c9</stp>
+        <tr r="GM1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e3d5881e-ad46-4021-9b0a-efbcbcfb9216</stp>
         <tr r="FZ1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>3d0b0e07-4790-4538-8c7d-ea29ab5f90e9</stp>
+        <stp>4fbdcfef-f8c9-4089-b0f4-2c7142bbe402</stp>
+        <tr r="Q1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cc3106ce-2a35-431c-a426-e64d382f8d82</stp>
+        <tr r="CT1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0ff17e26-1f2a-47b7-85e3-3a82f829ce67</stp>
+        <tr r="BR1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>af60c72d-5fd3-4074-9b0d-df91699adc91</stp>
+        <tr r="CF1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>564782f6-8152-4b1d-9920-f59b9642643b</stp>
+        <tr r="DK1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8156132c-de20-4354-ad82-ff0f6ba09375</stp>
+        <tr r="EL1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7f229f1f-664c-42ca-af75-fe8999b3fac8</stp>
+        <tr r="GP1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bb090508-87c1-491c-b8f1-976d0b6dbb99</stp>
+        <tr r="HC1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2373ae32-c10b-482e-a024-8cc5c9b4bfdb</stp>
+        <tr r="AJ1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5f87f295-f0d7-46bd-b2e9-bf5252f4b942</stp>
+        <tr r="AC1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3a666486-7753-472c-88a3-888ba443825f</stp>
+        <tr r="FX1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9533a4bc-3d5e-46fc-abd2-51a5fcf498c7</stp>
+        <tr r="EV1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>01937793-3b99-4b88-9028-124470214b49</stp>
+        <tr r="CS1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>264c86e7-5d72-4fde-bfeb-d2b77a18f99f</stp>
+        <tr r="EB1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9efbfd92-1067-44ef-97a7-8cebf8b1548d</stp>
+        <tr r="CK1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>beea5297-96ab-4a67-8a50-af7deefe77dc</stp>
+        <tr r="CD1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b286a8ff-20e1-44f2-ba67-3cd29a0a9f89</stp>
+        <tr r="EX1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ed81772d-7958-4639-9fdb-09e7b9406a80</stp>
+        <tr r="GF1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6ac3238b-6b7e-40f1-a8d7-f5f6e9687ed0</stp>
+        <tr r="DY1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>108f37bf-26b6-4dcb-bb97-696ad75128c0</stp>
+        <tr r="GR1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d26fe337-15b5-4ff9-b207-3a9a590c392c</stp>
+        <tr r="EK1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bf80d6fe-6b6e-4ee8-a8bc-879aef2cc400</stp>
+        <tr r="CP1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cae5f8db-9678-4fec-90e3-f890c5b19293</stp>
+        <tr r="AT1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>78fc661b-6427-4456-84a7-f28b8e9d1a30</stp>
+        <tr r="ES1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7f2976a5-e939-4ac8-aa24-6a5f63160418</stp>
+        <tr r="GS1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1d257025-0840-458c-a579-2c86b9c8c35d</stp>
+        <tr r="W1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>26e33d49-673c-49d9-b04f-c4415ecd6ae9</stp>
+        <tr r="CG1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4ee147ac-ac52-4829-b811-6c20a652d7b4</stp>
+        <tr r="GQ1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>01f437c1-1f67-4961-a768-869039e0ff04</stp>
+        <tr r="AP1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>077d832d-4e63-43a7-bac0-93ae85a0b872</stp>
+        <tr r="GT1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>59964c06-59bc-4d0f-9ae8-24854125933d</stp>
+        <tr r="BF1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ea5eb583-f559-4e9b-8157-c1cf57b0498e</stp>
+        <tr r="HF1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8e04e6df-503c-4def-b22f-3afe505ec9fa</stp>
+        <tr r="BP1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4ebb23b5-cb1e-4cad-a68f-cf50c5aa2a19</stp>
+        <tr r="BQ1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3f196755-baae-4d0b-a25b-641b22d0094a</stp>
+        <tr r="CJ1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5927a76b-5eae-4964-9ec7-6b632c1a2690</stp>
+        <tr r="CZ1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>92da213c-9091-415f-b0a8-23e48a8b941b</stp>
+        <tr r="FD1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1bdaa9e8-dd50-4197-bf2d-dc7c854fd78e</stp>
+        <tr r="CE1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>10761e9d-f677-4778-88a4-84bf132d16f5</stp>
         <tr r="CC1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>ecc86ddc-baf5-4cef-bcc7-f96dbb1f12f1</stp>
+        <stp>eba67b35-7642-481e-be61-892e629284ef</stp>
+        <tr r="CM1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e25395f9-ab44-4dc2-8112-47a150f5f6e8</stp>
+        <tr r="AA1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1a74994b-448a-44e2-a7f7-5e2a808449c0</stp>
+        <tr r="BU1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6c4a731c-d318-449b-8e78-d63475eb4622</stp>
+        <tr r="HI1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>372107ad-668e-4812-98ed-c135ae44ea76</stp>
+        <tr r="DS1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ecb88d87-2c7f-4995-bd70-6f7ccd009a52</stp>
+        <tr r="AZ1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2e70ac84-b7eb-4431-aee4-bfd18ab64c40</stp>
+        <tr r="CN1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0bb69b5c-b6fb-4a72-ab6e-b36c03a5f32d</stp>
+        <tr r="HH1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>680d324a-094c-40e9-8310-b0474a8d66d3</stp>
+        <tr r="EF1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>941101b9-d9a2-4833-80f5-43c5a02b9b65</stp>
+        <tr r="AY1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9e58cffb-f168-46b2-a61a-b536b14574ed</stp>
+        <tr r="U1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>60584ffa-6ffd-484a-a873-53a73e30e66b</stp>
+        <tr r="CW1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>928cbdb4-e55e-474c-b6e9-7c5cf7e177b6</stp>
+        <tr r="BI1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>32f8e470-c7d1-461a-b4be-6656611e075e</stp>
+        <tr r="CY1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a1a5f313-dfad-4c56-aed5-abf11aa01a70</stp>
+        <tr r="CO1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1ce76dfa-250f-440f-98f9-afb3870612d7</stp>
+        <tr r="AG1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bd7ed228-5a61-4b52-9a50-1248428ae2d3</stp>
+        <tr r="BB1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>01e2d122-b2cd-44a1-b8e8-16e2ef4da01f</stp>
+        <tr r="DD1" s="24"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a3042ba1-0986-4780-a224-f72f9d6f0fe3</stp>
         <tr r="AB1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>bbce7086-c54b-4599-9301-d0190045e15f</stp>
-        <tr r="AE1" s="24"/>
+        <stp>36ac0d38-d0ec-474e-8e47-de625eb2f0ef</stp>
+        <tr r="EY1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>1b59a88a-85e5-4296-b292-240cfdd6040a</stp>
-        <tr r="GL1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2a635567-1fb0-4b22-8092-af09d14d203b</stp>
-        <tr r="EW1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>31516d9f-3306-4791-a44d-3bb4a9d8d0b9</stp>
-        <tr r="GM1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>82071233-a376-4904-b76b-5839dc4200b7</stp>
-        <tr r="FY1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8b961e6e-0764-4253-be46-e920a7a74678</stp>
-        <tr r="CJ1" s="24"/>
+        <stp>d1fbb5ae-e02f-4e75-bbf3-652c9ec5e59f</stp>
+        <tr r="V1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>2bbc364d-68d0-4281-bc3d-b77319524fab</stp>
-        <tr r="EQ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b5f66db2-dd09-4534-a3bc-ed5ce74568d1</stp>
-        <tr r="DG1" s="24"/>
+        <stp>b47e7a34-e262-43bd-9ad3-bd582ae0dbe9</stp>
+        <tr r="GX1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>3b9d4587-6f03-41dc-b9d2-596cfe6ef206</stp>
-        <tr r="FI1" s="24"/>
+        <stp>82df2df2-79a7-432a-b1f2-f1b56980a9df</stp>
+        <tr r="FN1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fd40e030-2bd3-4ead-8ce0-20e36f909f1e</stp>
+        <tr r="I1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3b3a38cc-f58a-4c83-a6dc-f89dda113e28</stp>
+        <tr r="AK1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>d0efb112-9fa6-4a5c-a4ef-78099831063e</stp>
-        <tr r="CT1" s="24"/>
+        <stp>a32ebb0e-0ddd-4ba5-b079-b0b48b4bdf70</stp>
+        <tr r="DU1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>6e320bcd-25e6-439f-b29d-cb5c9ac31a49</stp>
-        <tr r="BM1" s="24"/>
+        <stp>847d9a88-b7ce-4624-ac5a-d95d2ad13970</stp>
+        <tr r="AE1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c509f5e8-159c-40b0-855c-de5cc521ec83</stp>
-        <tr r="EH1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>52b6ecb4-f588-4b7a-996a-2dd553dab0ce</stp>
-        <tr r="BE1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6420ce5c-e112-48ed-b34f-2df535622258</stp>
-        <tr r="GD1" s="24"/>
+        <stp>2757fd0e-d3d3-407d-b091-371588f79504</stp>
+        <tr r="EO1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>51755ab0-f64b-4610-819e-422ed2ece8e4</stp>
-        <tr r="FS1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>198ee93e-4142-4ed3-bf29-ae781141af3c</stp>
-        <tr r="DB1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3155e00f-88bd-4809-963b-1f1dc7175e16</stp>
-        <tr r="FH1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>82b4b76a-f7be-4c36-9773-3b52c18d4647</stp>
-        <tr r="GG1" s="24"/>
+        <stp>91c9d2dc-18de-4f7b-9256-94cda990d801</stp>
+        <tr r="AV1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>9357b3e8-f57c-4791-aaff-36dc91a3b1cb</stp>
-        <tr r="AH1" s="24"/>
+        <stp>7705c6d7-d249-4fb1-a2fa-4c1929a3983f</stp>
+        <tr r="EZ1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>37a305e9-dc1a-40f0-986d-9d6051521db2</stp>
+        <tr r="FG1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>6ec17ad7-1e14-437b-8368-4cf6df020b2a</stp>
-        <tr r="DK1" s="24"/>
+        <stp>f8522923-24dd-432d-b296-c58c392be3c2</stp>
+        <tr r="T1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>c23e4fed-65b1-48d8-b814-40eda904bd93</stp>
-        <tr r="HE1" s="24"/>
+        <stp>83fb926f-d0ed-4add-8dbb-0bafd4904d76</stp>
+        <tr r="BA1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>a08d2a9c-5e9b-4c32-87e3-31a5cb5b8f4d</stp>
-        <tr r="Q1" s="24"/>
+        <stp>bbb79abe-f999-441b-b105-cee9a0a793f9</stp>
+        <tr r="AX1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>d561c447-d656-4630-bd37-461337b6faba</stp>
-        <tr r="GJ1" s="24"/>
+        <stp>4711aa05-7000-4c9e-bab6-5e570c8fc183</stp>
+        <tr r="Z1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>4ceb67db-5d5c-422d-93a5-9756fadfc40e</stp>
-        <tr r="GF1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d212ff16-74d4-412f-8f49-3129dce72e58</stp>
-        <tr r="HC1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ed7f7cc6-6ac8-4864-8475-fe29603f3af9</stp>
-        <tr r="BG1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>37d77c22-4a7d-4fb3-b056-d86c59e0ba7e</stp>
-        <tr r="AI1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3deab994-da20-4419-99ec-a1888bb170f2</stp>
-        <tr r="FU1" s="24"/>
+        <stp>e7c17c24-5766-46c5-873e-4108c64a212f</stp>
+        <tr r="ER1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>969bd4d8-0573-4dbd-abc6-78a299f5d287</stp>
-        <tr r="EK1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c2a196f4-d9a5-4054-accc-77e727545220</stp>
-        <tr r="CU1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>068114ba-67ec-480f-bef0-5cc8abb160c6</stp>
-        <tr r="CO1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7acdd765-2432-4bed-bc55-176c4399f4c5</stp>
-        <tr r="BU1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6223c1cc-c20b-45cf-a676-f1ab65a020da</stp>
-        <tr r="DS1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f236a2eb-9e7d-445e-a69f-8bcdd5f9b74d</stp>
-        <tr r="HI1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>31ab8aa2-fa0c-4b5b-8e45-5fdce33e7170</stp>
-        <tr r="DQ1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>518e5ff9-7412-440a-b50b-112fea937e72</stp>
+        <stp>8daf98d6-235f-49ff-b5bc-4aba59673c72</stp>
         <tr r="Y1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>0dd5b86a-9784-4fb1-acdb-b1ca71d54431</stp>
-        <tr r="O1" s="24"/>
+        <stp>32e30f11-36fc-4b62-8a73-773383a9f74e</stp>
+        <tr r="DA1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>74428f32-496e-4e4f-b536-65e694e47173</stp>
-        <tr r="S1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b89f45af-e3fa-4814-adb7-a4fe40245911</stp>
-        <tr r="K1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0855f80e-fa9e-4d58-9633-69efa5e85bc4</stp>
-        <tr r="EZ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>56afbf25-17d1-4c92-b5fe-71184c9dcd8e</stp>
-        <tr r="M1" s="24"/>
+        <stp>3734d5f4-2a7d-4ce5-a54f-6af0aa0dbcfd</stp>
+        <tr r="FH1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>aa8fd89b-8ba3-42ab-aa66-862ada773aaf</stp>
-        <tr r="AS1" s="24"/>
+        <stp>6cc0c310-2778-43db-b01f-92f7245aee3f</stp>
+        <tr r="FS1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>1100071f-9dc5-4176-a9b5-6ea594f499f9</stp>
-        <tr r="CQ1" s="24"/>
+        <stp>ff6e74b6-2ad6-4e89-8f23-b860fdf9feed</stp>
+        <tr r="CA1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>077a665b-262f-46bd-bccc-de3ed76a9ebf</stp>
-        <tr r="FN1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b51dc04c-9102-4a47-9bad-7eab84d2d826</stp>
-        <tr r="GT1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>53aebe8c-9150-4328-9c8b-ba6ac52bb92f</stp>
-        <tr r="GP1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4c95b715-e8bc-4e57-8ac9-7b3650c515c0</stp>
-        <tr r="DD1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f048afae-5e91-424a-a485-6a1ec82eea05</stp>
-        <tr r="BH1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>323e2422-8b3b-41b8-891b-5108dbaa6fd6</stp>
-        <tr r="N1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fbbc86f6-fa9b-46be-84ad-4e36edb755dc</stp>
-        <tr r="J1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7b9b1754-de47-4001-a95e-2288003f4536</stp>
-        <tr r="CI1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>66c48ccd-dd95-4b32-8c03-afb40e4f120f</stp>
-        <tr r="BT1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8ec52087-350f-4c01-aecc-014bf6da9129</stp>
-        <tr r="A1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e4939c49-402c-4e5e-be4a-ebbc8d3d56ba</stp>
-        <tr r="FE1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a3074e5c-2823-4384-9d0c-4e52febaebb4</stp>
-        <tr r="I1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>336713ef-d943-48fd-aadf-bf241dc33d67</stp>
-        <tr r="FV1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a3060160-3eef-4498-a65f-58be71528785</stp>
-        <tr r="AW1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5a137d72-a203-4e3b-b661-29b9c2b909c4</stp>
-        <tr r="BP1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bf7b423a-77bc-4f12-b2a0-67e4a659e307</stp>
-        <tr r="CE1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8eb59557-12b3-432e-a1ae-831a3f6d4138</stp>
-        <tr r="E1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c31a8efd-2b70-4fd0-9457-2337d226ea30</stp>
-        <tr r="EF1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4e59a1f8-60ee-4d01-a4ef-0e2a63a0ea9c</stp>
-        <tr r="DV1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3d83142c-7d6d-4864-88ae-9bcaf4308e78</stp>
-        <tr r="AU1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2c246b47-32e4-49bf-aa37-a322ab8e67bb</stp>
-        <tr r="EU1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e5cbed6b-2118-49ee-abd1-4d4a33951403</stp>
-        <tr r="EJ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d323b143-bbed-4c1e-ae05-cebc2eedc43e</stp>
-        <tr r="BB1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1f5799e0-ecea-44f9-b685-41e753de38bc</stp>
-        <tr r="P1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b400ee95-e101-48d9-ab93-9da1236d9ca7</stp>
-        <tr r="X1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>aea4b98a-1803-4889-ba1f-2e90922ff246</stp>
-        <tr r="CV1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cbccd754-b95b-471b-aa4f-5b69219ba247</stp>
-        <tr r="DO1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>af8016fc-2fef-4458-8244-c905ebb4750a</stp>
-        <tr r="DH1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a36914de-4a86-44e0-9cb9-631b56287dbb</stp>
-        <tr r="GH1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d1b15a99-bb60-42eb-a90b-d7ca04dd7c5a</stp>
-        <tr r="C1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d097296f-2e9b-4de6-ac85-5d2aca94b061</stp>
-        <tr r="BK1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e327f1c4-bf89-4252-ae70-e6f95741fd58</stp>
-        <tr r="AJ1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e32bcc91-bfbb-4849-8d6f-cd0c1c334e2b</stp>
-        <tr r="FK1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>9907da3c-bded-46eb-8345-7f1786ca5c7a</stp>
-        <tr r="DW1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>eed29336-891b-485f-aec2-e3e06eea6b5b</stp>
-        <tr r="FR1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1594c301-83d7-414f-bd3c-8346442e837a</stp>
-        <tr r="AO1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a0b076b5-b5ce-480a-865c-e95605672c2b</stp>
-        <tr r="CS1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>69b3d12e-b522-41a6-9ce2-b615cedfb5d7</stp>
-        <tr r="CZ1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>876a1e70-8f0b-4c8e-b640-c54933d77bb6</stp>
-        <tr r="FC1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bc4b6166-1a22-44fc-929b-a5c377b8bdd9</stp>
-        <tr r="CX1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a25dd4b9-a424-483c-b613-59ee37c9ed56</stp>
-        <tr r="EV1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e690f68c-9572-4066-a7c2-666d844b3092</stp>
-        <tr r="BZ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9d61ac9f-f80d-4b74-bd8c-fea72adba7f5</stp>
-        <tr r="AF1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>81e861ad-80b2-4ab0-8eab-6955b60528fc</stp>
-        <tr r="CK1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2a8575db-8ac0-45bd-b635-386d38b1ae35</stp>
-        <tr r="AC1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>88d9324f-6668-4062-a659-4a58feb40ac7</stp>
-        <tr r="BQ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6561c614-3f0b-45da-a741-fbf1aaf4584c</stp>
-        <tr r="AZ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9e31bbdf-cdc5-44c6-b5e4-57e8b879ff57</stp>
-        <tr r="AT1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d67912d6-908b-4134-890a-448e3244cb7a</stp>
-        <tr r="CF1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>67e8d94a-4b99-4122-b79e-3eff99cec0d8</stp>
-        <tr r="ET1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>75734f8d-9088-44ad-931d-315a3a4e0251</stp>
-        <tr r="GR1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d1a2c88d-eac6-40e2-a7b5-de3842ece621</stp>
-        <tr r="BC1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>84719029-ae19-426e-b471-3da8472b89d3</stp>
-        <tr r="CL1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>31820b89-5d4c-4d10-988f-42c77c79cb5a</stp>
-        <tr r="GV1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>028d9373-a69e-40d3-9377-469fb840f688</stp>
-        <tr r="DY1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e8a231e8-c934-47d0-8bce-cc0f712547b8</stp>
-        <tr r="DL1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9131fec5-0ce1-4715-b88d-128117cff0c4</stp>
-        <tr r="GU1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>aa039766-aadc-4792-a168-5e59d949432c</stp>
-        <tr r="HH1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9b21b354-095e-4a9e-a39e-b6d094e9cc1f</stp>
-        <tr r="CP1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>47cce1c1-17d4-44f8-be79-50df02409f79</stp>
-        <tr r="EA1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0b17d64a-e676-407a-83b9-d937ff87c67c</stp>
-        <tr r="AM1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a26ae4c6-de2d-46e8-83ac-72d036416d51</stp>
-        <tr r="FX1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5acaed3d-9005-436b-aa72-037a085ad9c3</stp>
-        <tr r="BR1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>69401b70-ec76-47a2-b726-afccc673f50c</stp>
-        <tr r="BX1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>035fe218-9393-4596-81b0-88d249e3a670</stp>
-        <tr r="BI1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7b63d446-dafd-4fed-aa46-86e03883e7e4</stp>
-        <tr r="CD1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>389a7eba-5678-491d-b47a-52a0b471df6e</stp>
-        <tr r="BY1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b2bc3902-f754-4ed7-94bd-b47c32f46e4b</stp>
-        <tr r="EN1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cebc442f-2834-4c3c-8c30-242759e4fd1f</stp>
-        <tr r="ES1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ca3c2dc9-0969-4950-8865-c40a3dccd97b</stp>
-        <tr r="CA1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d9b164a8-b5dc-46b4-aef9-4ddcbae82b8b</stp>
-        <tr r="HG1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>60cbbfbb-b36f-4758-85e3-a7c80adeee09</stp>
-        <tr r="EC1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6f4d3937-12bb-4201-9b7f-714597f5942a</stp>
-        <tr r="GI1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>608c8435-9c03-482b-b84f-62ce914ae271</stp>
-        <tr r="EE1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b7312121-29c5-4117-b293-866ef2e6fd68</stp>
-        <tr r="EO1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3732108f-3892-423c-849b-645e84978412</stp>
-        <tr r="GX1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5a2a89db-b2bc-4d02-8ca6-2d109a91b687</stp>
-        <tr r="GZ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2a07ced5-402d-403d-9590-ed891b7f82d0</stp>
-        <tr r="BV1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>db0adc7f-0c8b-456e-af57-d29ed336e9ad</stp>
-        <tr r="GA1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>58846181-32f4-42f2-920a-563ca5ef0b29</stp>
+        <stp>8cc7d2d9-21ea-405f-9476-2bcbd3ac6177</stp>
         <tr r="F1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b7eda3d3-0e0e-42f7-b3b3-832fb31828b3</stp>
-        <tr r="BS1" s="24"/>
+        <stp>ba59d583-dabb-4a64-8e30-f266bdd19337</stp>
+        <tr r="AF1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>eef92d23-5d02-4b69-af62-f1fbf6692eb2</stp>
-        <tr r="GQ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3105964c-bce8-427e-8e9d-dedfe098855b</stp>
-        <tr r="H1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b7432c3a-80c2-4d1b-9549-0f67e7bd821e</stp>
-        <tr r="DJ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>09539821-6c29-4539-8a0f-c28deac66432</stp>
-        <tr r="R1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d7002e76-cd30-4243-a2a5-b89734cea6eb</stp>
-        <tr r="V1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>21379037-9e08-488d-a1c2-da5dae555b73</stp>
-        <tr r="GW1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3c0b1227-3bb5-4d12-b168-f5a3d3291841</stp>
-        <tr r="ED1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>51fb0460-0f1e-4c92-838a-2cbeef6cdb0b</stp>
-        <tr r="DC1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ab4cc811-284d-4a40-ae64-73ca2978e3ec</stp>
-        <tr r="BA1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ef2cab67-3474-4154-bd76-81f801784cb4</stp>
-        <tr r="AV1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5774cc32-68f8-4e2e-8edf-8eef3be0b351</stp>
-        <tr r="EB1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a68b2904-0507-4950-b9a7-1626587257d5</stp>
-        <tr r="BW1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c53a268e-f7d7-4dc7-bdcd-9d1edc9e4a7c</stp>
-        <tr r="CG1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>573fc6dc-9f6f-4eae-86a8-7575b8c80f93</stp>
-        <tr r="EP1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>08700c8b-39fd-4438-a6a3-bf20e805f8d4</stp>
-        <tr r="AX1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>55e42cd5-b649-498e-ae80-e9580e3f8bcc</stp>
+        <stp>6f5ce7e6-c32b-42d7-a8f6-1c9bd65c1e9d</stp>
         <tr r="DZ1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>11351bbe-0ff7-4b94-8ab4-b7ac23b3ffa5</stp>
-        <tr r="AG1" s="24"/>
+        <stp>36b27fdd-436f-4093-8c6c-6d9a2dd472cd</stp>
+        <tr r="EE1" s="24"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>baf0a118-260d-4993-bbc0-644b2f1813c9</stp>
+        <tr r="AQ1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>4d16df45-7b3e-48f9-a2bb-71fc796f814b</stp>
-        <tr r="CM1" s="24"/>
+        <stp>25a54a54-398a-409a-b9d3-03165c2d4ae5</stp>
+        <tr r="GG1" s="24"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
+    <main first="rtdsrv_eco_4eb59bb010514c39a273b51ff3399544">
       <tp>
         <v>3</v>
         <stp/>
-        <stp>2c01fa05-6923-45ce-a49f-c99390b316e3</stp>
-        <tr r="AK1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>281212d8-a9ce-4168-a9f3-b6670af0141f</stp>
-        <tr r="EL1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>65088bc3-5026-4d9d-9262-bcbda111c487</stp>
-        <tr r="AY1" s="24"/>
+        <stp>312b98a5-43f0-4a19-9766-1692dea8a232</stp>
+        <tr r="FE1" s="24"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>b76a290b-7b31-435d-b3d8-9e3e43c3696d</stp>
-        <tr r="CY1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f44d3b65-11c2-42c5-abd0-24c2268a1b7e</stp>
-        <tr r="FW1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2d81ef8d-e36d-488b-9c53-bf32dfefaf26</stp>
-        <tr r="GK1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7df825d2-7075-49fc-96ae-cef54ba72548</stp>
-        <tr r="ER1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4bb6efe3-190d-4ced-8ae7-61d0dc7e8093</stp>
-        <tr r="U1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>aa3ea486-6ceb-430a-9f05-50bab5ad6bdb</stp>
-        <tr r="DU1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cc6601b6-4372-4372-9acb-5844ac60995b</stp>
-        <tr r="EX1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3142a4a5-5ca4-45fb-8511-9feee46cddd5</stp>
-        <tr r="DE1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b14e05aa-01ed-476a-93c6-0506334aee80</stp>
-        <tr r="HJ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7d5408d3-2f9b-4932-858d-bc57cc83818e</stp>
-        <tr r="GY1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>975d9fc5-f2d7-4747-b5fb-141a52f42536</stp>
-        <tr r="DP1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0e6844e0-cd20-43e3-a859-7630f2104d4c</stp>
-        <tr r="AN1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e5e13ebb-4b7c-4fcc-81b3-05c4749e5042</stp>
-        <tr r="BN1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f070db61-4704-466b-b6a9-aa3c0cf2f325</stp>
-        <tr r="BL1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f3e074f5-6e07-4eae-bbdf-fa2ef3f80634</stp>
-        <tr r="HF1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ee57bf27-027f-4d07-b4dd-abff27424aeb</stp>
-        <tr r="CN1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>acfee438-5c03-4f1f-b5d2-c2067e5e1cbc</stp>
-        <tr r="GN1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>46f07fa1-7b1c-4ac6-9740-7e6631d56b84</stp>
-        <tr r="AA1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>74f52502-902a-4cad-bcee-f908219a8b10</stp>
-        <tr r="FD1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fefa0741-35ce-4b43-8872-3a0433ee9d88</stp>
-        <tr r="T1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4f3b25ba-bbb3-47d8-a579-589820d76ea3</stp>
-        <tr r="Z1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c943f24a-8bd1-434b-8e37-8a209b1532dd</stp>
-        <tr r="FP1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2a5756cf-a27b-4857-b6e9-ed3dea5a03c5</stp>
-        <tr r="EY1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bb600223-3e06-4631-8df2-0ddce5d687be</stp>
-        <tr r="BJ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0a2ff700-ab9c-4665-a878-7f06db96ac4d</stp>
-        <tr r="HA1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d1e8c732-63e1-4313-a271-ad0703db11c3</stp>
-        <tr r="FJ1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4f4d09e2-8fde-466d-9f2e-ad5e0b781e25</stp>
-        <tr r="DR1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1db29752-35b3-47dc-9033-3c3b46022720</stp>
-        <tr r="CH1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8f598b2f-ba1d-4e3e-a2eb-87fe920632c5</stp>
-        <tr r="D1" s="24"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>bc9ca7f0-53cd-4c34-9a72-4c8224afbd78</stp>
-        <tr r="FG1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0ca56c83-2481-496f-b753-d79145c43243</stp>
-        <tr r="FA1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>10466d9e-c7c3-4021-a65b-362db712bc51</stp>
-        <tr r="GO1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6f9719c2-071f-4fe1-aef9-4e48f89f944e</stp>
-        <tr r="FT1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>97f07c2e-d798-4d4b-a08f-88fda2fbf1ea</stp>
-        <tr r="GB1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>dc98f5f7-515b-4130-9690-62c2f8feb047</stp>
-        <tr r="EM1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ec6f1f22-c31c-44fa-9ca8-a22b8506a1ae</stp>
-        <tr r="BF1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>76e528e7-4fa3-4e8f-b899-11733bd1affe</stp>
-        <tr r="DM1" s="24"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>978577f3-d063-4855-9ddd-12e111f5efa7</stp>
-        <tr r="HD1" s="24"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_8224c37ff16b4964bdb3f8200ef46a5e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f9ae60a4-2a70-4f08-b6d9-6d8a277ccd0f</stp>
-        <tr r="FM1" s="24"/>
+        <stp>d75fb507-601b-4e4c-826a-468407eea36e</stp>
+        <tr r="EC1" s="24"/>
       </tp>
     </main>
   </volType>
@@ -2865,7 +2819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7E4CEA-E98D-425A-8C40-993213D523C4}">
-  <dimension ref="A1:HK7538"/>
+  <dimension ref="A1:HK7566"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
       <selection activeCell="AO2" sqref="AO2"/>
@@ -81534,6 +81488,9 @@
       <c r="BS7503">
         <v>2.5968777362000002</v>
       </c>
+      <c r="BT7503">
+        <v>-11.872520893000001</v>
+      </c>
       <c r="BU7503">
         <v>1.6561164884999999</v>
       </c>
@@ -81599,6 +81556,12 @@
       </c>
       <c r="CS7503">
         <v>7.5641323530999998</v>
+      </c>
+      <c r="CX7503">
+        <v>18.559145733000001</v>
+      </c>
+      <c r="CY7503">
+        <v>18.559145733000001</v>
       </c>
       <c r="DB7503">
         <v>5.1517207377999998</v>
@@ -81915,6 +81878,146 @@
     <row r="7538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7538" s="1">
         <v>45247</v>
+      </c>
+    </row>
+    <row r="7539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7539" s="1">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="7540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7540" s="1">
+        <v>45251</v>
+      </c>
+    </row>
+    <row r="7541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7541" s="1">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="7542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7542" s="1">
+        <v>45253</v>
+      </c>
+    </row>
+    <row r="7543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7543" s="1">
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="7544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7544" s="1">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="7545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7545" s="1">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="7546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7546" s="1">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="7547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7547" s="1">
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="7548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7548" s="1">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="7549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7549" s="1">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="7550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7550" s="1">
+        <v>45265</v>
+      </c>
+    </row>
+    <row r="7551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7551" s="1">
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="7552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7552" s="1">
+        <v>45267</v>
+      </c>
+    </row>
+    <row r="7553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7553" s="1">
+        <v>45268</v>
+      </c>
+    </row>
+    <row r="7554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7554" s="1">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="7555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7555" s="1">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="7556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7556" s="1">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="7557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7557" s="1">
+        <v>45274</v>
+      </c>
+    </row>
+    <row r="7558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7558" s="1">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="7559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7559" s="1">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="7560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7560" s="1">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="7561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7561" s="1">
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="7562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7562" s="1">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="7563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7563" s="1">
+        <v>45282</v>
+      </c>
+    </row>
+    <row r="7564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7564" s="1">
+        <v>45285</v>
+      </c>
+    </row>
+    <row r="7565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7565" s="1">
+        <v>45286</v>
+      </c>
+    </row>
+    <row r="7566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7566" s="1">
+        <v>45287</v>
       </c>
     </row>
   </sheetData>
